--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_16_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1678463.044595284</v>
+        <v>-1680323.052523487</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5362323.59841027</v>
+        <v>5362323.598410268</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>305.3102796803863</v>
+        <v>305.3102796803862</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>287.8493297879132</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>277.2594796375886</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5068080891675</v>
+        <v>304.5068080891674</v>
       </c>
       <c r="F11" t="n">
-        <v>329.4524837586171</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>335.1249171548102</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>146.6585879020477</v>
+        <v>229.6203414123884</v>
       </c>
       <c r="I11" t="n">
-        <v>26.86878149913295</v>
+        <v>26.86878149913292</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>292.3075386953747</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>308.8143766729593</v>
       </c>
     </row>
     <row r="12">
@@ -1446,28 +1446,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>89.10962166677304</v>
+        <v>89.10962166677299</v>
       </c>
       <c r="C12" t="n">
-        <v>95.28493700522144</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>80.2215184723066</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>58.44629703045003</v>
+        <v>58.44629703044999</v>
       </c>
       <c r="H12" t="n">
-        <v>20.57944696583555</v>
+        <v>20.57944696583551</v>
       </c>
       <c r="I12" t="n">
-        <v>30.85995589767753</v>
+        <v>30.85995589767724</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,25 +1497,25 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>66.88705533198578</v>
+        <v>66.88705533198575</v>
       </c>
       <c r="T12" t="n">
-        <v>116.8012902225022</v>
+        <v>194.2248522055965</v>
       </c>
       <c r="U12" t="n">
         <v>148.4208689038235</v>
       </c>
       <c r="V12" t="n">
-        <v>155.377025166331</v>
+        <v>155.3770251663309</v>
       </c>
       <c r="W12" t="n">
         <v>174.2714211778253</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>128.3494232203831</v>
       </c>
       <c r="Y12" t="n">
-        <v>128.2591337942101</v>
+        <v>128.25913379421</v>
       </c>
     </row>
     <row r="13">
@@ -1528,25 +1528,25 @@
         <v>102.408418198843</v>
       </c>
       <c r="C13" t="n">
-        <v>89.82325911553353</v>
+        <v>89.82325911553349</v>
       </c>
       <c r="D13" t="n">
-        <v>71.19191103511805</v>
+        <v>71.19191103511801</v>
       </c>
       <c r="E13" t="n">
-        <v>8.071023509456264</v>
+        <v>69.01040066347483</v>
       </c>
       <c r="F13" t="n">
-        <v>67.99748603983694</v>
+        <v>7.058108885816389</v>
       </c>
       <c r="G13" t="n">
-        <v>89.33195188606987</v>
+        <v>89.33195188606985</v>
       </c>
       <c r="H13" t="n">
-        <v>73.81919917407163</v>
+        <v>73.8191991740716</v>
       </c>
       <c r="I13" t="n">
-        <v>40.87309622974151</v>
+        <v>40.87309622974146</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.31880839361162</v>
+        <v>44.31880839361158</v>
       </c>
       <c r="S13" t="n">
-        <v>125.0622420268079</v>
+        <v>125.0622420268078</v>
       </c>
       <c r="T13" t="n">
-        <v>145.2432203545649</v>
+        <v>145.2432203545648</v>
       </c>
       <c r="U13" t="n">
         <v>208.8280783467078</v>
@@ -1594,7 +1594,7 @@
         <v>148.2860934059428</v>
       </c>
       <c r="Y13" t="n">
-        <v>141.1610913690005</v>
+        <v>141.1610913690004</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>305.3102796803863</v>
+        <v>305.3102796803862</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>277.2594796375886</v>
       </c>
       <c r="E14" t="n">
-        <v>93.15141083548623</v>
+        <v>304.5068080891674</v>
       </c>
       <c r="F14" t="n">
         <v>329.4524837586171</v>
@@ -1625,7 +1625,7 @@
         <v>233.844191526861</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>26.86878149913287</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>68.83384483201115</v>
+        <v>68.83384483201104</v>
       </c>
       <c r="T14" t="n">
-        <v>133.6155215347106</v>
+        <v>133.6155215347105</v>
       </c>
       <c r="U14" t="n">
-        <v>173.7017502545638</v>
+        <v>173.7017502545636</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.3286964870405</v>
       </c>
       <c r="W14" t="n">
-        <v>271.8174067343187</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>308.8143766729593</v>
+        <v>92.07890816742359</v>
       </c>
     </row>
     <row r="15">
@@ -1701,7 +1701,7 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H15" t="n">
-        <v>98.00300894892986</v>
+        <v>98.0030089489282</v>
       </c>
       <c r="I15" t="n">
         <v>38.65884129492195</v>
@@ -1734,7 +1734,7 @@
         <v>8.661760614590023</v>
       </c>
       <c r="S15" t="n">
-        <v>144.3106173150798</v>
+        <v>144.3106173150801</v>
       </c>
       <c r="T15" t="n">
         <v>194.2248522055965</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.408418198843</v>
+        <v>41.4690410448251</v>
       </c>
       <c r="C16" t="n">
-        <v>89.82325911553353</v>
+        <v>89.82325911553343</v>
       </c>
       <c r="D16" t="n">
-        <v>71.19191103511805</v>
+        <v>71.19191103511795</v>
       </c>
       <c r="E16" t="n">
-        <v>69.01040066347487</v>
+        <v>69.01040066347477</v>
       </c>
       <c r="F16" t="n">
-        <v>67.99748603983694</v>
+        <v>67.99748603983684</v>
       </c>
       <c r="G16" t="n">
-        <v>89.33195188606989</v>
+        <v>89.33195188606977</v>
       </c>
       <c r="H16" t="n">
-        <v>73.81919917407163</v>
+        <v>73.81919917407154</v>
       </c>
       <c r="I16" t="n">
-        <v>40.87309622974151</v>
+        <v>40.87309622974141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.31880839361162</v>
+        <v>44.31880839361152</v>
       </c>
       <c r="S16" t="n">
-        <v>125.0622420268079</v>
+        <v>125.0622420268078</v>
       </c>
       <c r="T16" t="n">
-        <v>145.2432203545649</v>
+        <v>145.2432203545648</v>
       </c>
       <c r="U16" t="n">
-        <v>208.8280783467078</v>
+        <v>208.8280783467077</v>
       </c>
       <c r="V16" t="n">
-        <v>174.7140813407337</v>
+        <v>174.7140813407336</v>
       </c>
       <c r="W16" t="n">
-        <v>209.0994363534967</v>
+        <v>209.0994363534966</v>
       </c>
       <c r="X16" t="n">
         <v>148.2860934059428</v>
       </c>
       <c r="Y16" t="n">
-        <v>80.22171421498068</v>
+        <v>141.1610913690004</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>230.4635783425403</v>
+        <v>230.4635783425402</v>
       </c>
       <c r="C17" t="n">
-        <v>213.0026284500673</v>
+        <v>213.0026284500672</v>
       </c>
       <c r="D17" t="n">
-        <v>202.4127782997427</v>
+        <v>202.4127782997426</v>
       </c>
       <c r="E17" t="n">
-        <v>229.6601067513215</v>
+        <v>229.6601067513214</v>
       </c>
       <c r="F17" t="n">
-        <v>254.6057824207712</v>
+        <v>254.6057824207711</v>
       </c>
       <c r="G17" t="n">
-        <v>260.2782158169643</v>
+        <v>260.2782158169642</v>
       </c>
       <c r="H17" t="n">
-        <v>158.9974901890151</v>
+        <v>158.997490189015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1895,22 +1895,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>58.7688201968646</v>
+        <v>58.76882019686451</v>
       </c>
       <c r="U17" t="n">
-        <v>98.85504891671778</v>
+        <v>98.85504891671769</v>
       </c>
       <c r="V17" t="n">
-        <v>175.4819951491946</v>
+        <v>175.4819951491945</v>
       </c>
       <c r="W17" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X17" t="n">
-        <v>217.4608373575288</v>
+        <v>217.4608373575287</v>
       </c>
       <c r="Y17" t="n">
-        <v>233.9676753351133</v>
+        <v>233.9676753351132</v>
       </c>
     </row>
     <row r="18">
@@ -1974,7 +1974,7 @@
         <v>144.3106173150801</v>
       </c>
       <c r="T18" t="n">
-        <v>194.2248522055965</v>
+        <v>194.2248522055949</v>
       </c>
       <c r="U18" t="n">
         <v>225.8444308869178</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>27.56171686099702</v>
+        <v>27.56171686099694</v>
       </c>
       <c r="C19" t="n">
-        <v>14.97655777768756</v>
+        <v>49.110884820437</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,19 +2011,19 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>14.48525054822391</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H19" t="n">
-        <v>151.2427611571659</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>6.011770023545964</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>121.7423703767059</v>
       </c>
       <c r="S19" t="n">
-        <v>50.21554068896189</v>
+        <v>50.21554068896181</v>
       </c>
       <c r="T19" t="n">
-        <v>214.4397332783928</v>
+        <v>222.6667823376592</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2516403298021</v>
+        <v>133.9813770088617</v>
       </c>
       <c r="V19" t="n">
-        <v>99.86738000288773</v>
+        <v>99.86738000288764</v>
       </c>
       <c r="W19" t="n">
-        <v>134.2527350156507</v>
+        <v>134.2527350156506</v>
       </c>
       <c r="X19" t="n">
-        <v>73.43939206809688</v>
+        <v>73.43939206809679</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.31439003115452</v>
+        <v>66.31439003115443</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>230.4635783425387</v>
+        <v>230.4635783425402</v>
       </c>
       <c r="C20" t="n">
-        <v>213.0026284500673</v>
+        <v>213.0026284500672</v>
       </c>
       <c r="D20" t="n">
-        <v>202.4127782997427</v>
+        <v>202.4127782997426</v>
       </c>
       <c r="E20" t="n">
-        <v>229.6601067513215</v>
+        <v>229.6601067513214</v>
       </c>
       <c r="F20" t="n">
-        <v>254.6057824207712</v>
+        <v>254.6057824207711</v>
       </c>
       <c r="G20" t="n">
-        <v>260.2782158169643</v>
+        <v>260.2782158169642</v>
       </c>
       <c r="H20" t="n">
-        <v>158.9974901890151</v>
+        <v>158.997490189015</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>58.7688201968646</v>
+        <v>58.76882019686451</v>
       </c>
       <c r="U20" t="n">
-        <v>98.85504891671778</v>
+        <v>98.85504891671769</v>
       </c>
       <c r="V20" t="n">
-        <v>175.4819951491946</v>
+        <v>175.4819951491945</v>
       </c>
       <c r="W20" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X20" t="n">
-        <v>217.4608373575288</v>
+        <v>217.4608373575287</v>
       </c>
       <c r="Y20" t="n">
-        <v>233.9676753351133</v>
+        <v>233.9676753351132</v>
       </c>
     </row>
     <row r="21">
@@ -2205,10 +2205,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>8.661760614590023</v>
+        <v>8.661760614588847</v>
       </c>
       <c r="S21" t="n">
-        <v>144.3106173150798</v>
+        <v>144.3106173150801</v>
       </c>
       <c r="T21" t="n">
         <v>194.2248522055965</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>27.56171686099702</v>
+        <v>27.56171686099694</v>
       </c>
       <c r="C22" t="n">
-        <v>14.97655777768756</v>
+        <v>14.97655777768747</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,16 +2251,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>14.48525054822391</v>
+        <v>14.48525054822382</v>
       </c>
       <c r="H22" t="n">
-        <v>151.2427611571659</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>118.2966582128358</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>6.011770023545964</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>75.96209673779992</v>
+        <v>50.21554068896181</v>
       </c>
       <c r="T22" t="n">
-        <v>222.6667823376592</v>
+        <v>219.4240011381651</v>
       </c>
       <c r="U22" t="n">
-        <v>133.9813770088618</v>
+        <v>286.2516403298021</v>
       </c>
       <c r="V22" t="n">
-        <v>99.86738000288773</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>134.2527350156507</v>
+        <v>134.2527350156506</v>
       </c>
       <c r="X22" t="n">
-        <v>73.43939206809688</v>
+        <v>73.43939206809679</v>
       </c>
       <c r="Y22" t="n">
-        <v>66.31439003115452</v>
+        <v>66.31439003115443</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>230.4635783425403</v>
+        <v>230.4635783425402</v>
       </c>
       <c r="C23" t="n">
-        <v>213.0026284500673</v>
+        <v>213.0026284500672</v>
       </c>
       <c r="D23" t="n">
-        <v>202.4127782997427</v>
+        <v>202.4127782997426</v>
       </c>
       <c r="E23" t="n">
-        <v>229.6601067513215</v>
+        <v>229.6601067513214</v>
       </c>
       <c r="F23" t="n">
-        <v>254.6057824207712</v>
+        <v>254.6057824207711</v>
       </c>
       <c r="G23" t="n">
-        <v>260.2782158169643</v>
+        <v>260.2782158169642</v>
       </c>
       <c r="H23" t="n">
-        <v>158.9974901890151</v>
+        <v>158.997490189015</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>58.7688201968646</v>
+        <v>58.76882019686451</v>
       </c>
       <c r="U23" t="n">
-        <v>98.85504891671778</v>
+        <v>98.85504891671769</v>
       </c>
       <c r="V23" t="n">
-        <v>175.4819951491946</v>
+        <v>175.4819951491945</v>
       </c>
       <c r="W23" t="n">
         <v>196.9707053964727</v>
       </c>
       <c r="X23" t="n">
-        <v>217.4608373575288</v>
+        <v>217.4608373575287</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.9676753351133</v>
+        <v>233.9676753351132</v>
       </c>
     </row>
     <row r="24">
@@ -2448,7 +2448,7 @@
         <v>144.3106173150801</v>
       </c>
       <c r="T24" t="n">
-        <v>194.2248522055958</v>
+        <v>194.2248522055965</v>
       </c>
       <c r="U24" t="n">
         <v>225.8444308869178</v>
@@ -2473,16 +2473,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>27.56171686099702</v>
+        <v>27.56171686099694</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>14.97655777768747</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>2.593519474876612</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.21554068896189</v>
+        <v>50.21554068896181</v>
       </c>
       <c r="T25" t="n">
-        <v>70.39651901671893</v>
+        <v>70.39651901671884</v>
       </c>
       <c r="U25" t="n">
-        <v>133.9813770088618</v>
+        <v>286.2516403298021</v>
       </c>
       <c r="V25" t="n">
-        <v>99.86738000288773</v>
+        <v>248.8948621243337</v>
       </c>
       <c r="W25" t="n">
-        <v>134.2527350156507</v>
+        <v>134.2527350156506</v>
       </c>
       <c r="X25" t="n">
-        <v>73.43939206809688</v>
+        <v>73.43939206809679</v>
       </c>
       <c r="Y25" t="n">
-        <v>66.31439003115452</v>
+        <v>66.31439003115443</v>
       </c>
     </row>
     <row r="26">
@@ -2555,7 +2555,7 @@
         <v>302.7541835278234</v>
       </c>
       <c r="C26" t="n">
-        <v>285.2932336353505</v>
+        <v>285.2932336353504</v>
       </c>
       <c r="D26" t="n">
         <v>274.7033834850258</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>66.27774867944832</v>
+        <v>66.27774867944831</v>
       </c>
       <c r="T26" t="n">
-        <v>131.0594253821478</v>
+        <v>131.0594253821477</v>
       </c>
       <c r="U26" t="n">
         <v>171.1456541020009</v>
@@ -2649,10 +2649,10 @@
         <v>135.8698590135443</v>
       </c>
       <c r="H27" t="n">
-        <v>98.00300894892985</v>
+        <v>98.00300894892986</v>
       </c>
       <c r="I27" t="n">
-        <v>38.65884129492194</v>
+        <v>38.65884129492195</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>8.661760614590008</v>
+        <v>8.661760614590023</v>
       </c>
       <c r="S27" t="n">
         <v>144.3106173150801</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>99.85232204628019</v>
+        <v>99.85232204628016</v>
       </c>
       <c r="C28" t="n">
-        <v>87.26716296297073</v>
+        <v>87.2671629629707</v>
       </c>
       <c r="D28" t="n">
-        <v>68.63581488255525</v>
+        <v>68.63581488255522</v>
       </c>
       <c r="E28" t="n">
-        <v>66.45430451091207</v>
+        <v>66.45430451091204</v>
       </c>
       <c r="F28" t="n">
-        <v>65.44138988727414</v>
+        <v>65.44138988727411</v>
       </c>
       <c r="G28" t="n">
-        <v>86.77585573350709</v>
+        <v>86.77585573350706</v>
       </c>
       <c r="H28" t="n">
-        <v>71.26310302150883</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I28" t="n">
-        <v>38.3170000771787</v>
+        <v>38.31700007717868</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.76271224104881</v>
+        <v>41.76271224104879</v>
       </c>
       <c r="S28" t="n">
-        <v>122.5061458742451</v>
+        <v>122.506145874245</v>
       </c>
       <c r="T28" t="n">
         <v>142.6871242020021</v>
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.7541835278234</v>
+        <v>302.7541835278235</v>
       </c>
       <c r="C29" t="n">
-        <v>285.2932336353504</v>
+        <v>285.2932336353505</v>
       </c>
       <c r="D29" t="n">
-        <v>274.7033834850258</v>
+        <v>274.7033834850259</v>
       </c>
       <c r="E29" t="n">
-        <v>301.9507119366046</v>
+        <v>301.9507119366047</v>
       </c>
       <c r="F29" t="n">
-        <v>326.8963876060543</v>
+        <v>326.8963876060544</v>
       </c>
       <c r="G29" t="n">
-        <v>332.5688210022474</v>
+        <v>332.5688210022475</v>
       </c>
       <c r="H29" t="n">
-        <v>231.2880953742982</v>
+        <v>231.2880953742983</v>
       </c>
       <c r="I29" t="n">
-        <v>24.31268534657013</v>
+        <v>24.31268534657021</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>66.27774867944831</v>
+        <v>66.27774867944839</v>
       </c>
       <c r="T29" t="n">
-        <v>131.0594253821477</v>
+        <v>131.0594253821478</v>
       </c>
       <c r="U29" t="n">
-        <v>171.1456541020009</v>
+        <v>171.145654102001</v>
       </c>
       <c r="V29" t="n">
         <v>247.7726003344778</v>
@@ -2855,7 +2855,7 @@
         <v>269.2613105817559</v>
       </c>
       <c r="X29" t="n">
-        <v>289.7514425428119</v>
+        <v>289.751442542812</v>
       </c>
       <c r="Y29" t="n">
         <v>306.2582805203965</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.85232204628016</v>
+        <v>99.85232204628024</v>
       </c>
       <c r="C31" t="n">
-        <v>87.2671629629707</v>
+        <v>87.26716296297077</v>
       </c>
       <c r="D31" t="n">
-        <v>68.63581488255463</v>
+        <v>68.63581488255529</v>
       </c>
       <c r="E31" t="n">
-        <v>66.45430451091204</v>
+        <v>66.45430451091211</v>
       </c>
       <c r="F31" t="n">
-        <v>65.44138988727411</v>
+        <v>65.44138988727261</v>
       </c>
       <c r="G31" t="n">
-        <v>86.77585573350706</v>
+        <v>86.77585573350713</v>
       </c>
       <c r="H31" t="n">
-        <v>71.26310302150881</v>
+        <v>71.26310302150887</v>
       </c>
       <c r="I31" t="n">
-        <v>38.31700007717868</v>
+        <v>38.31700007717875</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.76271224104879</v>
+        <v>41.76271224104886</v>
       </c>
       <c r="S31" t="n">
-        <v>122.506145874245</v>
+        <v>122.5061458742451</v>
       </c>
       <c r="T31" t="n">
         <v>142.6871242020021</v>
@@ -3013,7 +3013,7 @@
         <v>206.5433402009339</v>
       </c>
       <c r="X31" t="n">
-        <v>145.72999725338</v>
+        <v>145.7299972533801</v>
       </c>
       <c r="Y31" t="n">
         <v>138.6049952164377</v>
@@ -3038,7 +3038,7 @@
         <v>301.9507119366046</v>
       </c>
       <c r="F32" t="n">
-        <v>326.8963876060542</v>
+        <v>326.8963876060543</v>
       </c>
       <c r="G32" t="n">
         <v>332.5688210022474</v>
@@ -3047,7 +3047,7 @@
         <v>231.2880953742982</v>
       </c>
       <c r="I32" t="n">
-        <v>24.31268534657009</v>
+        <v>24.31268534657015</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.27774867944827</v>
+        <v>66.27774867944834</v>
       </c>
       <c r="T32" t="n">
         <v>131.0594253821477</v>
@@ -3086,16 +3086,16 @@
         <v>171.1456541020009</v>
       </c>
       <c r="V32" t="n">
-        <v>247.7726003344777</v>
+        <v>247.7726003344778</v>
       </c>
       <c r="W32" t="n">
-        <v>269.2613105817558</v>
+        <v>269.2613105817559</v>
       </c>
       <c r="X32" t="n">
-        <v>289.7514425428118</v>
+        <v>289.7514425428119</v>
       </c>
       <c r="Y32" t="n">
-        <v>306.2582805203964</v>
+        <v>306.2582805203965</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>99.85232204628012</v>
+        <v>99.85232204628018</v>
       </c>
       <c r="C34" t="n">
-        <v>87.26716296297066</v>
+        <v>87.26716296297072</v>
       </c>
       <c r="D34" t="n">
-        <v>68.63581488255518</v>
+        <v>68.63581488255524</v>
       </c>
       <c r="E34" t="n">
-        <v>66.454304510912</v>
+        <v>66.45430451091205</v>
       </c>
       <c r="F34" t="n">
-        <v>65.44138988727407</v>
+        <v>65.44138988727413</v>
       </c>
       <c r="G34" t="n">
-        <v>86.77585573350702</v>
+        <v>86.77585573350707</v>
       </c>
       <c r="H34" t="n">
-        <v>71.26310302150877</v>
+        <v>71.26310302150881</v>
       </c>
       <c r="I34" t="n">
-        <v>38.31700007717863</v>
+        <v>38.31700007717869</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.76271224104875</v>
+        <v>41.7627122410488</v>
       </c>
       <c r="S34" t="n">
         <v>122.506145874245</v>
       </c>
       <c r="T34" t="n">
-        <v>142.687124202002</v>
+        <v>142.6871242020021</v>
       </c>
       <c r="U34" t="n">
-        <v>206.2719821941449</v>
+        <v>206.271982194145</v>
       </c>
       <c r="V34" t="n">
-        <v>172.1579851881708</v>
+        <v>172.1579851881709</v>
       </c>
       <c r="W34" t="n">
-        <v>206.5433402009338</v>
+        <v>206.5433402009339</v>
       </c>
       <c r="X34" t="n">
         <v>145.72999725338</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6049952164376</v>
+        <v>138.6049952164377</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3275,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F35" t="n">
-        <v>302.5837022594842</v>
+        <v>302.5837022594841</v>
       </c>
       <c r="G35" t="n">
         <v>308.2561356556773</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>41.96506333287817</v>
+        <v>41.96506333287816</v>
       </c>
       <c r="T35" t="n">
         <v>106.7467400355776</v>
@@ -3329,7 +3329,7 @@
         <v>244.9486252351857</v>
       </c>
       <c r="X35" t="n">
-        <v>265.4387571962418</v>
+        <v>265.4387571962417</v>
       </c>
       <c r="Y35" t="n">
         <v>281.9455951738263</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>75.53963669971003</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C37" t="n">
-        <v>62.95447761640057</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D37" t="n">
-        <v>44.32312953598509</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E37" t="n">
-        <v>42.1416191643419</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F37" t="n">
-        <v>41.12870454070398</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G37" t="n">
-        <v>62.46317038693691</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H37" t="n">
-        <v>46.95041767493867</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I37" t="n">
-        <v>14.00431473060854</v>
+        <v>14.00431473060853</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>17.45002689447865</v>
+        <v>17.45002689447864</v>
       </c>
       <c r="S37" t="n">
-        <v>98.1934605276749</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T37" t="n">
         <v>118.3744388554319</v>
@@ -3512,7 +3512,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F38" t="n">
-        <v>302.5837022594842</v>
+        <v>302.5837022594841</v>
       </c>
       <c r="G38" t="n">
         <v>308.2561356556773</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>41.96506333287817</v>
+        <v>41.96506333287816</v>
       </c>
       <c r="T38" t="n">
         <v>106.7467400355776</v>
@@ -3566,7 +3566,7 @@
         <v>244.9486252351857</v>
       </c>
       <c r="X38" t="n">
-        <v>265.4387571962418</v>
+        <v>265.4387571962417</v>
       </c>
       <c r="Y38" t="n">
         <v>281.9455951738263</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>75.53963669971003</v>
+        <v>75.53963669971002</v>
       </c>
       <c r="C40" t="n">
-        <v>62.95447761640057</v>
+        <v>62.95447761640055</v>
       </c>
       <c r="D40" t="n">
-        <v>44.32312953598509</v>
+        <v>44.32312953598507</v>
       </c>
       <c r="E40" t="n">
-        <v>42.1416191643419</v>
+        <v>42.14161916434189</v>
       </c>
       <c r="F40" t="n">
-        <v>41.12870454070398</v>
+        <v>41.12870454070396</v>
       </c>
       <c r="G40" t="n">
-        <v>62.46317038693691</v>
+        <v>62.46317038693689</v>
       </c>
       <c r="H40" t="n">
-        <v>46.95041767493867</v>
+        <v>46.95041767493866</v>
       </c>
       <c r="I40" t="n">
-        <v>14.00431473060854</v>
+        <v>14.00431473060853</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>17.45002689447865</v>
+        <v>17.45002689447864</v>
       </c>
       <c r="S40" t="n">
-        <v>98.1934605276749</v>
+        <v>98.19346052767489</v>
       </c>
       <c r="T40" t="n">
         <v>118.3744388554319</v>
@@ -3749,7 +3749,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F41" t="n">
-        <v>302.5837022594841</v>
+        <v>302.5837022594842</v>
       </c>
       <c r="G41" t="n">
         <v>308.2561356556773</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>41.96506333287815</v>
+        <v>41.96506333287819</v>
       </c>
       <c r="T41" t="n">
         <v>106.7467400355776</v>
@@ -3797,13 +3797,13 @@
         <v>146.8329687554308</v>
       </c>
       <c r="V41" t="n">
-        <v>223.4599149879076</v>
+        <v>223.4599149879077</v>
       </c>
       <c r="W41" t="n">
-        <v>244.9486252351857</v>
+        <v>244.9486252351858</v>
       </c>
       <c r="X41" t="n">
-        <v>265.4387571962417</v>
+        <v>265.4387571962418</v>
       </c>
       <c r="Y41" t="n">
         <v>281.9455951738263</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.53963669971</v>
+        <v>75.53963669971004</v>
       </c>
       <c r="C43" t="n">
-        <v>62.95447761640054</v>
+        <v>62.95447761640058</v>
       </c>
       <c r="D43" t="n">
-        <v>44.32312953598506</v>
+        <v>44.3231295359851</v>
       </c>
       <c r="E43" t="n">
-        <v>42.14161916434188</v>
+        <v>42.14161916434192</v>
       </c>
       <c r="F43" t="n">
-        <v>41.12870454070395</v>
+        <v>41.12870454070399</v>
       </c>
       <c r="G43" t="n">
-        <v>62.46317038693688</v>
+        <v>62.46317038693692</v>
       </c>
       <c r="H43" t="n">
-        <v>46.95041767493864</v>
+        <v>46.95041767493868</v>
       </c>
       <c r="I43" t="n">
-        <v>14.00431473060851</v>
+        <v>14.00431473060856</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.45002689447863</v>
+        <v>17.45002689447867</v>
       </c>
       <c r="S43" t="n">
-        <v>98.19346052767487</v>
+        <v>98.19346052767492</v>
       </c>
       <c r="T43" t="n">
         <v>118.3744388554319</v>
@@ -3955,10 +3955,10 @@
         <v>181.9592968475748</v>
       </c>
       <c r="V43" t="n">
-        <v>147.8452998416007</v>
+        <v>147.8452998416008</v>
       </c>
       <c r="W43" t="n">
-        <v>182.2306548543637</v>
+        <v>182.2306548543638</v>
       </c>
       <c r="X43" t="n">
         <v>121.4173119068099</v>
@@ -3986,7 +3986,7 @@
         <v>277.6380265900345</v>
       </c>
       <c r="F44" t="n">
-        <v>302.5837022594841</v>
+        <v>302.5837022594842</v>
       </c>
       <c r="G44" t="n">
         <v>308.2561356556773</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>41.96506333287816</v>
+        <v>41.96506333287817</v>
       </c>
       <c r="T44" t="n">
         <v>106.7467400355776</v>
@@ -4040,7 +4040,7 @@
         <v>244.9486252351857</v>
       </c>
       <c r="X44" t="n">
-        <v>265.4387571962417</v>
+        <v>265.4387571962418</v>
       </c>
       <c r="Y44" t="n">
         <v>281.9455951738263</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>75.53963669971002</v>
+        <v>75.53963669971003</v>
       </c>
       <c r="C46" t="n">
-        <v>62.95447761640055</v>
+        <v>62.95447761640057</v>
       </c>
       <c r="D46" t="n">
-        <v>44.32312953598507</v>
+        <v>44.32312953598509</v>
       </c>
       <c r="E46" t="n">
-        <v>42.14161916434189</v>
+        <v>42.1416191643419</v>
       </c>
       <c r="F46" t="n">
-        <v>41.12870454070396</v>
+        <v>41.12870454070398</v>
       </c>
       <c r="G46" t="n">
-        <v>62.46317038693689</v>
+        <v>62.46317038693691</v>
       </c>
       <c r="H46" t="n">
-        <v>46.95041767493866</v>
+        <v>46.95041767493867</v>
       </c>
       <c r="I46" t="n">
-        <v>14.00431473060853</v>
+        <v>14.00431473060854</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>17.45002689447864</v>
+        <v>17.45002689447865</v>
       </c>
       <c r="S46" t="n">
-        <v>98.19346052767489</v>
+        <v>98.1934605276749</v>
       </c>
       <c r="T46" t="n">
         <v>118.3744388554319</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1190.026731365997</v>
+        <v>1173.353157651265</v>
       </c>
       <c r="C11" t="n">
-        <v>1190.026731365997</v>
+        <v>882.5962588755949</v>
       </c>
       <c r="D11" t="n">
-        <v>1190.026731365997</v>
+        <v>602.5361784335862</v>
       </c>
       <c r="E11" t="n">
-        <v>882.4440969324949</v>
+        <v>294.9535440000841</v>
       </c>
       <c r="F11" t="n">
-        <v>549.6638103076291</v>
+        <v>294.9535440000841</v>
       </c>
       <c r="G11" t="n">
-        <v>211.1537929795379</v>
+        <v>294.9535440000841</v>
       </c>
       <c r="H11" t="n">
-        <v>63.01380519969184</v>
+        <v>63.0138051996918</v>
       </c>
       <c r="I11" t="n">
-        <v>35.87362186723431</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="J11" t="n">
         <v>255.4704199811899</v>
@@ -5054,37 +5054,37 @@
         <v>1091.477839843301</v>
       </c>
       <c r="O11" t="n">
-        <v>1323.101546180859</v>
+        <v>1533.212988301219</v>
       </c>
       <c r="P11" t="n">
-        <v>1486.286019877172</v>
+        <v>1696.397461997532</v>
       </c>
       <c r="Q11" t="n">
-        <v>1770.769459162636</v>
+        <v>1770.769459162635</v>
       </c>
       <c r="R11" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="S11" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="T11" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="U11" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="V11" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="W11" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="X11" t="n">
-        <v>1498.420953265377</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.420953265377</v>
+        <v>1481.747379550645</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>697.82311208199</v>
+        <v>697.8231120819895</v>
       </c>
       <c r="C12" t="n">
-        <v>601.5757009656047</v>
+        <v>523.3700828008625</v>
       </c>
       <c r="D12" t="n">
-        <v>452.6412913043534</v>
+        <v>374.4356731396113</v>
       </c>
       <c r="E12" t="n">
-        <v>293.4038362988979</v>
+        <v>293.4038362988975</v>
       </c>
       <c r="F12" t="n">
-        <v>146.8692783257829</v>
+        <v>146.8692783257825</v>
       </c>
       <c r="G12" t="n">
-        <v>87.83261465866167</v>
+        <v>87.83261465866131</v>
       </c>
       <c r="H12" t="n">
-        <v>67.04529449115101</v>
+        <v>67.0452944911507</v>
       </c>
       <c r="I12" t="n">
-        <v>35.87362186723431</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="J12" t="n">
-        <v>167.2550800306238</v>
+        <v>48.1404657652259</v>
       </c>
       <c r="K12" t="n">
-        <v>528.1964794538183</v>
+        <v>147.2612805459676</v>
       </c>
       <c r="L12" t="n">
-        <v>707.7991883499785</v>
+        <v>326.8639894421278</v>
       </c>
       <c r="M12" t="n">
-        <v>936.7439464915652</v>
+        <v>770.8000600491523</v>
       </c>
       <c r="N12" t="n">
-        <v>1186.156836050518</v>
+        <v>1156.141552286624</v>
       </c>
       <c r="O12" t="n">
-        <v>1392.101108035158</v>
+        <v>1600.077622893648</v>
       </c>
       <c r="P12" t="n">
-        <v>1538.056476427294</v>
+        <v>1746.032991285784</v>
       </c>
       <c r="Q12" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R12" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="S12" t="n">
-        <v>1726.118411208195</v>
+        <v>1726.118411208194</v>
       </c>
       <c r="T12" t="n">
-        <v>1608.137309973344</v>
+        <v>1529.931691808601</v>
       </c>
       <c r="U12" t="n">
-        <v>1458.217240373522</v>
+        <v>1380.01162220878</v>
       </c>
       <c r="V12" t="n">
-        <v>1301.270750306521</v>
+        <v>1223.065132141779</v>
       </c>
       <c r="W12" t="n">
-        <v>1125.239011743061</v>
+        <v>1047.033393578319</v>
       </c>
       <c r="X12" t="n">
-        <v>917.3875115375286</v>
+        <v>917.3875115375279</v>
       </c>
       <c r="Y12" t="n">
-        <v>787.8328309373163</v>
+        <v>787.8328309373157</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>481.4371844832217</v>
+        <v>481.4371844832198</v>
       </c>
       <c r="C13" t="n">
-        <v>390.7066197200565</v>
+        <v>390.7066197200547</v>
       </c>
       <c r="D13" t="n">
-        <v>318.7955984724624</v>
+        <v>318.7955984724607</v>
       </c>
       <c r="E13" t="n">
-        <v>310.6430494730121</v>
+        <v>249.0881230548094</v>
       </c>
       <c r="F13" t="n">
-        <v>241.9587201398434</v>
+        <v>241.9587201398433</v>
       </c>
       <c r="G13" t="n">
-        <v>151.7244253054294</v>
+        <v>151.7244253054293</v>
       </c>
       <c r="H13" t="n">
-        <v>77.159577654852</v>
+        <v>77.15957765485194</v>
       </c>
       <c r="I13" t="n">
-        <v>35.87362186723431</v>
+        <v>35.8736218672343</v>
       </c>
       <c r="J13" t="n">
-        <v>106.5712959071879</v>
+        <v>106.571295907187</v>
       </c>
       <c r="K13" t="n">
-        <v>303.2770659414898</v>
+        <v>303.277065941489</v>
       </c>
       <c r="L13" t="n">
-        <v>589.0837408197783</v>
+        <v>589.0837408197774</v>
       </c>
       <c r="M13" t="n">
-        <v>896.6492882624218</v>
+        <v>896.6492882624211</v>
       </c>
       <c r="N13" t="n">
-        <v>1204.158780512783</v>
+        <v>1204.158780512782</v>
       </c>
       <c r="O13" t="n">
-        <v>1478.028540358915</v>
+        <v>1478.028540358914</v>
       </c>
       <c r="P13" t="n">
         <v>1699.913336220598</v>
       </c>
       <c r="Q13" t="n">
-        <v>1793.681093361716</v>
+        <v>1793.681093361715</v>
       </c>
       <c r="R13" t="n">
         <v>1748.914620236855</v>
       </c>
       <c r="S13" t="n">
-        <v>1622.58912324008</v>
+        <v>1622.589123240079</v>
       </c>
       <c r="T13" t="n">
-        <v>1475.87879964961</v>
+        <v>1475.878799649609</v>
       </c>
       <c r="U13" t="n">
-        <v>1264.941346774148</v>
+        <v>1264.941346774146</v>
       </c>
       <c r="V13" t="n">
-        <v>1088.462476733002</v>
+        <v>1088.462476733001</v>
       </c>
       <c r="W13" t="n">
-        <v>877.2509248607837</v>
+        <v>877.2509248607817</v>
       </c>
       <c r="X13" t="n">
-        <v>727.4669921275081</v>
+        <v>727.466992127506</v>
       </c>
       <c r="Y13" t="n">
-        <v>584.8800311487197</v>
+        <v>584.8800311487178</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1333.822249543952</v>
+        <v>1574.452733132653</v>
       </c>
       <c r="C14" t="n">
-        <v>1333.822249543952</v>
+        <v>1574.452733132653</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.762169101943</v>
+        <v>1294.392652690644</v>
       </c>
       <c r="E14" t="n">
-        <v>959.6698349246844</v>
+        <v>986.8100182571418</v>
       </c>
       <c r="F14" t="n">
-        <v>626.8895482998187</v>
+        <v>654.029731632276</v>
       </c>
       <c r="G14" t="n">
-        <v>288.3795309717275</v>
+        <v>315.5197143041848</v>
       </c>
       <c r="H14" t="n">
-        <v>52.17327690419116</v>
+        <v>79.31346023664858</v>
       </c>
       <c r="I14" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J14" t="n">
         <v>271.7700750181468</v>
       </c>
       <c r="K14" t="n">
-        <v>721.6335550411762</v>
+        <v>624.0515293048022</v>
       </c>
       <c r="L14" t="n">
-        <v>1077.639025439762</v>
+        <v>1234.423583465614</v>
       </c>
       <c r="M14" t="n">
-        <v>1328.383689112827</v>
+        <v>1880.067885154979</v>
       </c>
       <c r="N14" t="n">
-        <v>1587.79947196843</v>
+        <v>2139.483668010583</v>
       </c>
       <c r="O14" t="n">
-        <v>1819.423178305989</v>
+        <v>2371.107374348142</v>
       </c>
       <c r="P14" t="n">
-        <v>2301.188373092069</v>
+        <v>2534.291848044454</v>
       </c>
       <c r="Q14" t="n">
-        <v>2585.752211010478</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="R14" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="S14" t="n">
-        <v>2539.134709015607</v>
+        <v>2539.134709015606</v>
       </c>
       <c r="T14" t="n">
-        <v>2404.169535748223</v>
+        <v>2404.169535748222</v>
       </c>
       <c r="U14" t="n">
-        <v>2228.713222359775</v>
+        <v>2228.713222359774</v>
       </c>
       <c r="V14" t="n">
-        <v>2228.713222359775</v>
+        <v>1975.855953180945</v>
       </c>
       <c r="W14" t="n">
-        <v>1954.150185254402</v>
+        <v>1975.855953180945</v>
       </c>
       <c r="X14" t="n">
-        <v>1954.150185254402</v>
+        <v>1975.855953180945</v>
       </c>
       <c r="Y14" t="n">
-        <v>1642.216471443332</v>
+        <v>1882.846955032033</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5331,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>956.6172836305906</v>
+        <v>956.6172836305889</v>
       </c>
       <c r="C15" t="n">
-        <v>782.1642543494636</v>
+        <v>782.1642543494619</v>
       </c>
       <c r="D15" t="n">
-        <v>633.2298446882123</v>
+        <v>633.2298446882106</v>
       </c>
       <c r="E15" t="n">
-        <v>473.9923896827569</v>
+        <v>473.9923896827551</v>
       </c>
       <c r="F15" t="n">
-        <v>327.4578317096418</v>
+        <v>327.4578317096401</v>
       </c>
       <c r="G15" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777772</v>
       </c>
       <c r="H15" t="n">
-        <v>91.22261154552646</v>
+        <v>91.22261154552645</v>
       </c>
       <c r="I15" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J15" t="n">
         <v>189.2702457891875</v>
@@ -5364,43 +5364,43 @@
         <v>1096.946295958967</v>
       </c>
       <c r="M15" t="n">
-        <v>1436.44855738587</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.861446944822</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O15" t="n">
-        <v>1891.805718929463</v>
+        <v>2171.171911728109</v>
       </c>
       <c r="P15" t="n">
-        <v>2353.039228275136</v>
+        <v>2353.039228275135</v>
       </c>
       <c r="Q15" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="R15" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063506</v>
       </c>
       <c r="S15" t="n">
-        <v>2454.146291745245</v>
+        <v>2454.146291745244</v>
       </c>
       <c r="T15" t="n">
-        <v>2257.959572345653</v>
+        <v>2257.959572345651</v>
       </c>
       <c r="U15" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.833884581088</v>
       </c>
       <c r="V15" t="n">
-        <v>1794.681776349347</v>
+        <v>1794.681776349345</v>
       </c>
       <c r="W15" t="n">
-        <v>1540.444419621145</v>
+        <v>1540.444419621144</v>
       </c>
       <c r="X15" t="n">
-        <v>1332.592919415612</v>
+        <v>1332.592919415611</v>
       </c>
       <c r="Y15" t="n">
-        <v>1124.832620650659</v>
+        <v>1124.832620650657</v>
       </c>
     </row>
     <row r="16">
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.2917659383794</v>
+        <v>559.2917659383787</v>
       </c>
       <c r="C16" t="n">
-        <v>468.5612011752142</v>
+        <v>468.5612011752136</v>
       </c>
       <c r="D16" t="n">
-        <v>396.6501799276202</v>
+        <v>396.6501799276197</v>
       </c>
       <c r="E16" t="n">
-        <v>326.9427045099688</v>
+        <v>326.9427045099685</v>
       </c>
       <c r="F16" t="n">
-        <v>258.2583751768003</v>
+        <v>258.2583751767999</v>
       </c>
       <c r="G16" t="n">
-        <v>168.0240803423862</v>
+        <v>168.024080342386</v>
       </c>
       <c r="H16" t="n">
-        <v>93.45923269180885</v>
+        <v>93.45923269180872</v>
       </c>
       <c r="I16" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J16" t="n">
-        <v>122.870950944144</v>
+        <v>122.8709509441443</v>
       </c>
       <c r="K16" t="n">
-        <v>319.5767209784459</v>
+        <v>319.5767209784462</v>
       </c>
       <c r="L16" t="n">
-        <v>605.3833958567343</v>
+        <v>605.3833958567348</v>
       </c>
       <c r="M16" t="n">
-        <v>912.9489432993778</v>
+        <v>912.9489432993785</v>
       </c>
       <c r="N16" t="n">
         <v>1220.458435549739</v>
@@ -5452,34 +5452,34 @@
         <v>1494.328195395871</v>
       </c>
       <c r="P16" t="n">
-        <v>1716.212991257554</v>
+        <v>1716.212991257555</v>
       </c>
       <c r="Q16" t="n">
         <v>1809.980748398672</v>
       </c>
       <c r="R16" t="n">
-        <v>1765.214275273811</v>
+        <v>1765.214275273812</v>
       </c>
       <c r="S16" t="n">
-        <v>1638.888778277036</v>
+        <v>1638.888778277037</v>
       </c>
       <c r="T16" t="n">
-        <v>1492.178454686566</v>
+        <v>1492.178454686567</v>
       </c>
       <c r="U16" t="n">
-        <v>1281.241001811104</v>
+        <v>1281.241001811105</v>
       </c>
       <c r="V16" t="n">
-        <v>1104.762131769958</v>
+        <v>1104.76213176996</v>
       </c>
       <c r="W16" t="n">
-        <v>893.5505798977396</v>
+        <v>893.5505798977412</v>
       </c>
       <c r="X16" t="n">
-        <v>743.766647164464</v>
+        <v>743.7666471644651</v>
       </c>
       <c r="Y16" t="n">
-        <v>662.7346126038774</v>
+        <v>601.1796861856768</v>
       </c>
     </row>
     <row r="17">
@@ -5501,64 +5501,64 @@
         <v>732.8616490524237</v>
       </c>
       <c r="F17" t="n">
-        <v>475.6840910516447</v>
+        <v>475.6840910516448</v>
       </c>
       <c r="G17" t="n">
-        <v>212.7768023476408</v>
+        <v>212.7768023476407</v>
       </c>
       <c r="H17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="I17" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J17" t="n">
-        <v>104.3644259977938</v>
+        <v>271.7700750181468</v>
       </c>
       <c r="K17" t="n">
-        <v>233.3239475753702</v>
+        <v>400.7295965957231</v>
       </c>
       <c r="L17" t="n">
-        <v>448.2912509826552</v>
+        <v>597.617048351589</v>
       </c>
       <c r="M17" t="n">
-        <v>1093.935552672021</v>
+        <v>848.3617120246543</v>
       </c>
       <c r="N17" t="n">
-        <v>1739.579854361387</v>
+        <v>1210.807292518312</v>
       </c>
       <c r="O17" t="n">
-        <v>2348.195740149063</v>
+        <v>1819.423178305988</v>
       </c>
       <c r="P17" t="n">
-        <v>2511.380213845376</v>
+        <v>2301.188373092069</v>
       </c>
       <c r="Q17" t="n">
-        <v>2585.752211010479</v>
+        <v>2585.752211010477</v>
       </c>
       <c r="R17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="S17" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="T17" t="n">
-        <v>2549.301400566261</v>
+        <v>2549.30140056626</v>
       </c>
       <c r="U17" t="n">
-        <v>2449.4478158019</v>
+        <v>2449.447815801899</v>
       </c>
       <c r="V17" t="n">
-        <v>2272.193275247158</v>
+        <v>2272.193275247157</v>
       </c>
       <c r="W17" t="n">
-        <v>2073.232966765872</v>
+        <v>2073.232966765871</v>
       </c>
       <c r="X17" t="n">
-        <v>1853.575555293621</v>
+        <v>1853.57555529362</v>
       </c>
       <c r="Y17" t="n">
-        <v>1617.244570106638</v>
+        <v>1617.244570106637</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>956.6172836305896</v>
+        <v>956.6172836305906</v>
       </c>
       <c r="C18" t="n">
-        <v>782.1642543494626</v>
+        <v>782.1642543494636</v>
       </c>
       <c r="D18" t="n">
-        <v>633.2298446882114</v>
+        <v>633.2298446882123</v>
       </c>
       <c r="E18" t="n">
-        <v>473.9923896827559</v>
+        <v>473.9923896827569</v>
       </c>
       <c r="F18" t="n">
-        <v>327.4578317096409</v>
+        <v>327.4578317096418</v>
       </c>
       <c r="G18" t="n">
-        <v>190.2155498777784</v>
+        <v>190.2155498777788</v>
       </c>
       <c r="H18" t="n">
-        <v>91.22261154552648</v>
+        <v>91.22261154552645</v>
       </c>
       <c r="I18" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J18" t="n">
         <v>189.2702457891875</v>
@@ -5601,43 +5601,43 @@
         <v>1096.946295958967</v>
       </c>
       <c r="M18" t="n">
-        <v>1325.891054100553</v>
+        <v>1436.448557385869</v>
       </c>
       <c r="N18" t="n">
-        <v>1575.303943659506</v>
+        <v>1685.861446944821</v>
       </c>
       <c r="O18" t="n">
-        <v>1891.805718929463</v>
+        <v>1891.805718929462</v>
       </c>
       <c r="P18" t="n">
-        <v>2353.039228275137</v>
+        <v>2353.039228275135</v>
       </c>
       <c r="Q18" t="n">
-        <v>2608.663845209559</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="R18" t="n">
-        <v>2599.914592063508</v>
+        <v>2599.914592063506</v>
       </c>
       <c r="S18" t="n">
-        <v>2454.146291745245</v>
+        <v>2454.146291745244</v>
       </c>
       <c r="T18" t="n">
-        <v>2257.959572345652</v>
+        <v>2257.959572345653</v>
       </c>
       <c r="U18" t="n">
         <v>2029.833884581089</v>
       </c>
       <c r="V18" t="n">
-        <v>1794.681776349346</v>
+        <v>1794.681776349347</v>
       </c>
       <c r="W18" t="n">
-        <v>1540.444419621144</v>
+        <v>1540.444419621145</v>
       </c>
       <c r="X18" t="n">
         <v>1332.592919415612</v>
       </c>
       <c r="Y18" t="n">
-        <v>1124.832620650658</v>
+        <v>1124.832620650659</v>
       </c>
     </row>
     <row r="19">
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>240.7756400421946</v>
+        <v>263.3017449765064</v>
       </c>
       <c r="C19" t="n">
-        <v>225.6478039031162</v>
+        <v>213.6947906124286</v>
       </c>
       <c r="D19" t="n">
-        <v>225.6478039031162</v>
+        <v>213.6947906124286</v>
       </c>
       <c r="E19" t="n">
-        <v>225.6478039031162</v>
+        <v>213.6947906124286</v>
       </c>
       <c r="F19" t="n">
-        <v>225.6478039031162</v>
+        <v>66.80484311451823</v>
       </c>
       <c r="G19" t="n">
-        <v>211.016237692789</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="H19" t="n">
-        <v>58.24577187746992</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="I19" t="n">
-        <v>58.24577187746992</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J19" t="n">
-        <v>52.17327690419117</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="K19" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L19" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M19" t="n">
         <v>612.3032901696349</v>
@@ -5695,28 +5695,28 @@
         <v>1202.737789815875</v>
       </c>
       <c r="R19" t="n">
-        <v>1202.737789815875</v>
+        <v>1079.765698526273</v>
       </c>
       <c r="S19" t="n">
-        <v>1152.015021443186</v>
+        <v>1029.042930153585</v>
       </c>
       <c r="T19" t="n">
-        <v>935.4092302528907</v>
+        <v>804.1269883983733</v>
       </c>
       <c r="U19" t="n">
-        <v>646.2661592126865</v>
+        <v>668.7922641469978</v>
       </c>
       <c r="V19" t="n">
-        <v>545.3900177956282</v>
+        <v>567.9161227299396</v>
       </c>
       <c r="W19" t="n">
-        <v>409.7811945474961</v>
+        <v>432.3072994818076</v>
       </c>
       <c r="X19" t="n">
-        <v>335.5999904383073</v>
+        <v>358.1260953726189</v>
       </c>
       <c r="Y19" t="n">
-        <v>268.6157580836057</v>
+        <v>291.1418630179174</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1384.453076831345</v>
+        <v>1384.453076831344</v>
       </c>
       <c r="C20" t="n">
-        <v>1169.298906679762</v>
+        <v>1169.298906679761</v>
       </c>
       <c r="D20" t="n">
-        <v>964.8415548618399</v>
+        <v>964.8415548618391</v>
       </c>
       <c r="E20" t="n">
-        <v>732.8616490524241</v>
+        <v>732.8616490524237</v>
       </c>
       <c r="F20" t="n">
-        <v>475.6840910516452</v>
+        <v>475.6840910516447</v>
       </c>
       <c r="G20" t="n">
-        <v>212.7768023476408</v>
+        <v>212.7768023476407</v>
       </c>
       <c r="H20" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="I20" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J20" t="n">
         <v>271.7700750181468</v>
@@ -5759,25 +5759,25 @@
         <v>1011.101650756535</v>
       </c>
       <c r="M20" t="n">
-        <v>1269.972230752477</v>
+        <v>1351.295323311906</v>
       </c>
       <c r="N20" t="n">
-        <v>1529.38801360808</v>
+        <v>1610.711106167509</v>
       </c>
       <c r="O20" t="n">
-        <v>2138.003899395757</v>
+        <v>1842.334812505068</v>
       </c>
       <c r="P20" t="n">
-        <v>2301.188373092069</v>
+        <v>2324.100007291148</v>
       </c>
       <c r="Q20" t="n">
-        <v>2585.752211010478</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="R20" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="S20" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="T20" t="n">
         <v>2549.30140056626</v>
@@ -5820,13 +5820,13 @@
         <v>327.4578317096418</v>
       </c>
       <c r="G21" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777788</v>
       </c>
       <c r="H21" t="n">
-        <v>91.22261154552646</v>
+        <v>91.22261154552645</v>
       </c>
       <c r="I21" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J21" t="n">
         <v>189.2702457891875</v>
@@ -5844,16 +5844,16 @@
         <v>1575.303943659506</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.805718929463</v>
+        <v>1891.805718929462</v>
       </c>
       <c r="P21" t="n">
-        <v>2353.039228275136</v>
+        <v>2353.039228275135</v>
       </c>
       <c r="Q21" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209557</v>
       </c>
       <c r="R21" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S21" t="n">
         <v>2454.146291745245</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>360.267213994554</v>
+        <v>81.93267925359649</v>
       </c>
       <c r="C22" t="n">
-        <v>345.1393778554757</v>
+        <v>66.80484311451823</v>
       </c>
       <c r="D22" t="n">
-        <v>345.1393778554757</v>
+        <v>66.80484311451823</v>
       </c>
       <c r="E22" t="n">
-        <v>345.1393778554757</v>
+        <v>66.80484311451823</v>
       </c>
       <c r="F22" t="n">
-        <v>345.1393778554757</v>
+        <v>66.80484311451823</v>
       </c>
       <c r="G22" t="n">
-        <v>330.5078116451485</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="H22" t="n">
-        <v>177.7373458298293</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="I22" t="n">
-        <v>58.24577187746991</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="J22" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419114</v>
       </c>
       <c r="K22" t="n">
         <v>172.2297205752297</v>
       </c>
       <c r="L22" t="n">
-        <v>381.3870690902548</v>
+        <v>381.3870690902547</v>
       </c>
       <c r="M22" t="n">
         <v>612.3032901696349</v>
@@ -5935,25 +5935,25 @@
         <v>1202.737789815875</v>
       </c>
       <c r="S22" t="n">
-        <v>1126.008399171633</v>
+        <v>1152.015021443186</v>
       </c>
       <c r="T22" t="n">
-        <v>901.0924574164214</v>
+        <v>930.3746162531207</v>
       </c>
       <c r="U22" t="n">
-        <v>765.7577331650459</v>
+        <v>641.2315452129166</v>
       </c>
       <c r="V22" t="n">
-        <v>664.8815917479876</v>
+        <v>386.5470570070297</v>
       </c>
       <c r="W22" t="n">
-        <v>529.2727684998555</v>
+        <v>250.9382337588977</v>
       </c>
       <c r="X22" t="n">
-        <v>455.0915643906667</v>
+        <v>176.757029649709</v>
       </c>
       <c r="Y22" t="n">
-        <v>388.1073320359652</v>
+        <v>109.7727972950075</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1384.453076831343</v>
+        <v>1384.453076831345</v>
       </c>
       <c r="C23" t="n">
-        <v>1169.29890667976</v>
+        <v>1169.298906679762</v>
       </c>
       <c r="D23" t="n">
-        <v>964.8415548618386</v>
+        <v>964.8415548618398</v>
       </c>
       <c r="E23" t="n">
-        <v>732.8616490524231</v>
+        <v>732.8616490524241</v>
       </c>
       <c r="F23" t="n">
-        <v>475.6840910516441</v>
+        <v>475.6840910516453</v>
       </c>
       <c r="G23" t="n">
-        <v>212.7768023476408</v>
+        <v>212.7768023476407</v>
       </c>
       <c r="H23" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I23" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J23" t="n">
-        <v>271.7700750181468</v>
+        <v>104.3644259977938</v>
       </c>
       <c r="K23" t="n">
-        <v>441.1157721226809</v>
+        <v>237.8230104710407</v>
       </c>
       <c r="L23" t="n">
-        <v>638.0032238785468</v>
+        <v>848.1950646318525</v>
       </c>
       <c r="M23" t="n">
-        <v>1283.647525567912</v>
+        <v>1493.839366321218</v>
       </c>
       <c r="N23" t="n">
-        <v>1929.291827257278</v>
+        <v>2139.483668010584</v>
       </c>
       <c r="O23" t="n">
-        <v>2160.915533594837</v>
+        <v>2371.107374348143</v>
       </c>
       <c r="P23" t="n">
-        <v>2324.100007291149</v>
+        <v>2534.291848044455</v>
       </c>
       <c r="Q23" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R23" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="S23" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="T23" t="n">
-        <v>2549.30140056626</v>
+        <v>2549.301400566261</v>
       </c>
       <c r="U23" t="n">
-        <v>2449.447815801899</v>
+        <v>2449.4478158019</v>
       </c>
       <c r="V23" t="n">
-        <v>2272.193275247157</v>
+        <v>2272.193275247158</v>
       </c>
       <c r="W23" t="n">
-        <v>2073.232966765871</v>
+        <v>2073.232966765872</v>
       </c>
       <c r="X23" t="n">
-        <v>1853.57555529362</v>
+        <v>1853.575555293621</v>
       </c>
       <c r="Y23" t="n">
-        <v>1617.244570106637</v>
+        <v>1617.244570106638</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>956.6172836305906</v>
+        <v>956.6172836305905</v>
       </c>
       <c r="C24" t="n">
-        <v>782.1642543494636</v>
+        <v>782.1642543494635</v>
       </c>
       <c r="D24" t="n">
         <v>633.2298446882123</v>
       </c>
       <c r="E24" t="n">
-        <v>473.9923896827569</v>
+        <v>473.9923896827568</v>
       </c>
       <c r="F24" t="n">
         <v>327.4578317096418</v>
       </c>
       <c r="G24" t="n">
-        <v>190.2155498777789</v>
+        <v>190.2155498777788</v>
       </c>
       <c r="H24" t="n">
-        <v>91.22261154552646</v>
+        <v>91.22261154552648</v>
       </c>
       <c r="I24" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J24" t="n">
         <v>189.2702457891875</v>
@@ -6075,22 +6075,22 @@
         <v>1096.946295958967</v>
       </c>
       <c r="M24" t="n">
-        <v>1436.44855738587</v>
+        <v>1325.891054100553</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.861446944822</v>
+        <v>1575.303943659506</v>
       </c>
       <c r="O24" t="n">
         <v>1891.805718929463</v>
       </c>
       <c r="P24" t="n">
-        <v>2353.039228275136</v>
+        <v>2353.039228275137</v>
       </c>
       <c r="Q24" t="n">
-        <v>2608.663845209558</v>
+        <v>2608.663845209559</v>
       </c>
       <c r="R24" t="n">
-        <v>2599.914592063507</v>
+        <v>2599.914592063508</v>
       </c>
       <c r="S24" t="n">
         <v>2454.146291745245</v>
@@ -6099,7 +6099,7 @@
         <v>2257.959572345653</v>
       </c>
       <c r="U24" t="n">
-        <v>2029.833884581089</v>
+        <v>2029.83388458109</v>
       </c>
       <c r="V24" t="n">
         <v>1794.681776349347</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>540.0821830549364</v>
+        <v>235.7410260424252</v>
       </c>
       <c r="C25" t="n">
-        <v>371.1460001270295</v>
+        <v>220.6131899033469</v>
       </c>
       <c r="D25" t="n">
-        <v>371.1460001270295</v>
+        <v>220.6131899033469</v>
       </c>
       <c r="E25" t="n">
-        <v>223.2329065446364</v>
+        <v>220.6131899033469</v>
       </c>
       <c r="F25" t="n">
-        <v>223.2329065446364</v>
+        <v>220.6131899033469</v>
       </c>
       <c r="G25" t="n">
-        <v>54.79299354548067</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="H25" t="n">
-        <v>54.79299354548067</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="I25" t="n">
-        <v>54.79299354548067</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="J25" t="n">
-        <v>52.17327690419116</v>
+        <v>52.17327690419117</v>
       </c>
       <c r="K25" t="n">
         <v>172.2297205752297</v>
@@ -6178,19 +6178,19 @@
         <v>1080.907426476804</v>
       </c>
       <c r="U25" t="n">
-        <v>945.5727022254282</v>
+        <v>791.7643554365995</v>
       </c>
       <c r="V25" t="n">
-        <v>844.6965608083699</v>
+        <v>540.3554037958584</v>
       </c>
       <c r="W25" t="n">
-        <v>709.0877375602379</v>
+        <v>404.7465805477264</v>
       </c>
       <c r="X25" t="n">
-        <v>634.9065334510491</v>
+        <v>330.5653764385377</v>
       </c>
       <c r="Y25" t="n">
-        <v>567.9223010963476</v>
+        <v>263.5811440838363</v>
       </c>
     </row>
     <row r="26">
@@ -6209,40 +6209,40 @@
         <v>1302.723403959596</v>
       </c>
       <c r="E26" t="n">
-        <v>997.7226848317123</v>
+        <v>997.7226848317121</v>
       </c>
       <c r="F26" t="n">
-        <v>667.5243135124656</v>
+        <v>667.5243135124651</v>
       </c>
       <c r="G26" t="n">
-        <v>331.5962114899935</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H26" t="n">
-        <v>97.97187272807567</v>
+        <v>97.97187272807565</v>
       </c>
       <c r="I26" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J26" t="n">
-        <v>125.6047537948398</v>
+        <v>293.0104028151928</v>
       </c>
       <c r="K26" t="n">
-        <v>575.4682338178693</v>
+        <v>742.8738828382222</v>
       </c>
       <c r="L26" t="n">
-        <v>1185.840287978681</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M26" t="n">
-        <v>1881.603349809651</v>
+        <v>2036.319533714088</v>
       </c>
       <c r="N26" t="n">
-        <v>2573.992587833119</v>
+        <v>2295.735316569691</v>
       </c>
       <c r="O26" t="n">
-        <v>3182.608473620795</v>
+        <v>2904.351202357368</v>
       </c>
       <c r="P26" t="n">
-        <v>3596.308237896754</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q26" t="n">
         <v>3670.680235061857</v>
@@ -6263,13 +6263,13 @@
         <v>3048.200004255721</v>
       </c>
       <c r="W26" t="n">
-        <v>2776.218882455968</v>
+        <v>2776.218882455967</v>
       </c>
       <c r="X26" t="n">
-        <v>2483.540657665249</v>
+        <v>2483.540657665248</v>
       </c>
       <c r="Y26" t="n">
-        <v>2174.188859159798</v>
+        <v>2174.188859159797</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>112.4629393425724</v>
       </c>
       <c r="I27" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J27" t="n">
         <v>210.5105735862335</v>
@@ -6312,10 +6312,10 @@
         <v>1118.186623756013</v>
       </c>
       <c r="M27" t="n">
-        <v>1457.688885182916</v>
+        <v>1347.1313818976</v>
       </c>
       <c r="N27" t="n">
-        <v>1707.101774741868</v>
+        <v>1596.544271456552</v>
       </c>
       <c r="O27" t="n">
         <v>1913.04604672651</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.4586865960923</v>
+        <v>562.4586865960922</v>
       </c>
       <c r="C28" t="n">
-        <v>474.3100371385461</v>
+        <v>474.310037138546</v>
       </c>
       <c r="D28" t="n">
         <v>404.9809311965711</v>
@@ -6373,16 +6373,16 @@
         <v>271.7529570569891</v>
       </c>
       <c r="G28" t="n">
-        <v>184.100577528194</v>
+        <v>184.1005775281941</v>
       </c>
       <c r="H28" t="n">
         <v>112.1176451832358</v>
       </c>
       <c r="I28" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J28" t="n">
-        <v>146.641813932227</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K28" t="n">
         <v>345.8781191575661</v>
@@ -6406,13 +6406,13 @@
         <v>1851.465357724015</v>
       </c>
       <c r="R28" t="n">
-        <v>1809.280799904774</v>
+        <v>1809.280799904773</v>
       </c>
       <c r="S28" t="n">
-        <v>1685.537218213618</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T28" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U28" t="n">
         <v>1333.053272358923</v>
@@ -6421,13 +6421,13 @@
         <v>1159.156317623397</v>
       </c>
       <c r="W28" t="n">
-        <v>950.5266810567973</v>
+        <v>950.5266810567971</v>
       </c>
       <c r="X28" t="n">
-        <v>803.3246636291407</v>
+        <v>803.3246636291406</v>
       </c>
       <c r="Y28" t="n">
-        <v>663.3196179559714</v>
+        <v>663.3196179559711</v>
       </c>
     </row>
     <row r="29">
@@ -6443,46 +6443,46 @@
         <v>1580.201569095985</v>
       </c>
       <c r="D29" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E29" t="n">
-        <v>997.7226848317119</v>
+        <v>997.7226848317117</v>
       </c>
       <c r="F29" t="n">
-        <v>667.5243135124651</v>
+        <v>667.5243135124648</v>
       </c>
       <c r="G29" t="n">
-        <v>331.596211489993</v>
+        <v>331.5962114899926</v>
       </c>
       <c r="H29" t="n">
-        <v>97.97187272807567</v>
+        <v>97.97187272807572</v>
       </c>
       <c r="I29" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J29" t="n">
-        <v>293.0104028151928</v>
+        <v>125.6047537948397</v>
       </c>
       <c r="K29" t="n">
-        <v>421.9699243927691</v>
+        <v>575.4682338178692</v>
       </c>
       <c r="L29" t="n">
-        <v>1032.341978553581</v>
+        <v>1185.840287978681</v>
       </c>
       <c r="M29" t="n">
-        <v>1728.10504038455</v>
+        <v>1881.60334980965</v>
       </c>
       <c r="N29" t="n">
-        <v>2420.494278408018</v>
+        <v>2573.992587833118</v>
       </c>
       <c r="O29" t="n">
-        <v>3029.110164195694</v>
+        <v>3182.608473620794</v>
       </c>
       <c r="P29" t="n">
-        <v>3386.116397143448</v>
+        <v>3573.396603697674</v>
       </c>
       <c r="Q29" t="n">
-        <v>3670.680235061857</v>
+        <v>3647.768600862777</v>
       </c>
       <c r="R29" t="n">
         <v>3670.680235061857</v>
@@ -6497,7 +6497,7 @@
         <v>3298.475358128931</v>
       </c>
       <c r="V29" t="n">
-        <v>3048.200004255721</v>
+        <v>3048.200004255722</v>
       </c>
       <c r="W29" t="n">
         <v>2776.218882455968</v>
@@ -6506,7 +6506,7 @@
         <v>2483.540657665249</v>
       </c>
       <c r="Y29" t="n">
-        <v>2174.188859159797</v>
+        <v>2174.188859159798</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>977.8576114276367</v>
+        <v>977.8576114276365</v>
       </c>
       <c r="C30" t="n">
-        <v>803.4045821465097</v>
+        <v>803.4045821465095</v>
       </c>
       <c r="D30" t="n">
-        <v>654.4701724852584</v>
+        <v>654.4701724852582</v>
       </c>
       <c r="E30" t="n">
-        <v>495.2327174798029</v>
+        <v>495.2327174798028</v>
       </c>
       <c r="F30" t="n">
         <v>348.6981595066878</v>
@@ -6534,10 +6534,10 @@
         <v>211.4558776748248</v>
       </c>
       <c r="H30" t="n">
-        <v>112.4629393425725</v>
+        <v>112.4629393425724</v>
       </c>
       <c r="I30" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J30" t="n">
         <v>210.5105735862335</v>
@@ -6582,10 +6582,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X30" t="n">
-        <v>1353.833247212659</v>
+        <v>1353.833247212658</v>
       </c>
       <c r="Y30" t="n">
-        <v>1146.072948447705</v>
+        <v>1146.072948447704</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.4586865960916</v>
+        <v>562.4586865960912</v>
       </c>
       <c r="C31" t="n">
-        <v>474.3100371385455</v>
+        <v>474.310037138545</v>
       </c>
       <c r="D31" t="n">
-        <v>404.9809311965711</v>
+        <v>404.9809311965699</v>
       </c>
       <c r="E31" t="n">
-        <v>337.8553710845388</v>
+        <v>337.8553710845375</v>
       </c>
       <c r="F31" t="n">
-        <v>271.7529570569891</v>
+        <v>271.7529570569894</v>
       </c>
       <c r="G31" t="n">
-        <v>184.1005775281942</v>
+        <v>184.1005775281943</v>
       </c>
       <c r="H31" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832359</v>
       </c>
       <c r="I31" t="n">
-        <v>73.41360470123715</v>
+        <v>73.41360470123713</v>
       </c>
       <c r="J31" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322273</v>
       </c>
       <c r="K31" t="n">
-        <v>345.8781191575663</v>
+        <v>345.8781191575662</v>
       </c>
       <c r="L31" t="n">
-        <v>634.215329226892</v>
+        <v>634.2153292268918</v>
       </c>
       <c r="M31" t="n">
-        <v>944.3114118605727</v>
+        <v>944.3114118605724</v>
       </c>
       <c r="N31" t="n">
-        <v>1254.351439301971</v>
+        <v>1254.35143930197</v>
       </c>
       <c r="O31" t="n">
-        <v>1530.75173433914</v>
+        <v>1530.751734339139</v>
       </c>
       <c r="P31" t="n">
-        <v>1755.167065391861</v>
+        <v>1755.16706539186</v>
       </c>
       <c r="Q31" t="n">
         <v>1851.465357724015</v>
       </c>
       <c r="R31" t="n">
-        <v>1809.280799904774</v>
+        <v>1809.280799904773</v>
       </c>
       <c r="S31" t="n">
-        <v>1685.537218213618</v>
+        <v>1685.537218213617</v>
       </c>
       <c r="T31" t="n">
-        <v>1541.408809928767</v>
+        <v>1541.408809928766</v>
       </c>
       <c r="U31" t="n">
         <v>1333.053272358923</v>
       </c>
       <c r="V31" t="n">
-        <v>1159.156317623397</v>
+        <v>1159.156317623396</v>
       </c>
       <c r="W31" t="n">
-        <v>950.5266810567973</v>
+        <v>950.5266810567965</v>
       </c>
       <c r="X31" t="n">
-        <v>803.3246636291408</v>
+        <v>803.3246636291399</v>
       </c>
       <c r="Y31" t="n">
-        <v>663.3196179559706</v>
+        <v>663.3196179559702</v>
       </c>
     </row>
     <row r="32">
@@ -6680,22 +6680,22 @@
         <v>1580.201569095985</v>
       </c>
       <c r="D32" t="n">
-        <v>1302.723403959596</v>
+        <v>1302.723403959595</v>
       </c>
       <c r="E32" t="n">
-        <v>997.7226848317121</v>
+        <v>997.7226848317118</v>
       </c>
       <c r="F32" t="n">
         <v>667.5243135124651</v>
       </c>
       <c r="G32" t="n">
-        <v>331.5962114899933</v>
+        <v>331.596211489993</v>
       </c>
       <c r="H32" t="n">
-        <v>97.97187272807561</v>
+        <v>97.97187272807568</v>
       </c>
       <c r="I32" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J32" t="n">
         <v>293.0104028151928</v>
@@ -6704,34 +6704,34 @@
         <v>742.8738828382222</v>
       </c>
       <c r="L32" t="n">
-        <v>939.7613345940881</v>
+        <v>1353.245936999034</v>
       </c>
       <c r="M32" t="n">
-        <v>1635.524396425058</v>
+        <v>1603.990600672099</v>
       </c>
       <c r="N32" t="n">
-        <v>2327.913634448525</v>
+        <v>2295.735316569691</v>
       </c>
       <c r="O32" t="n">
-        <v>2881.439568158287</v>
+        <v>2904.351202357368</v>
       </c>
       <c r="P32" t="n">
-        <v>3363.204762944368</v>
+        <v>3386.116397143448</v>
       </c>
       <c r="Q32" t="n">
-        <v>3647.768600862777</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="R32" t="n">
-        <v>3670.680235061856</v>
+        <v>3670.680235061857</v>
       </c>
       <c r="S32" t="n">
         <v>3603.733014173525</v>
       </c>
       <c r="T32" t="n">
-        <v>3471.349756211759</v>
+        <v>3471.34975621176</v>
       </c>
       <c r="U32" t="n">
-        <v>3298.47535812893</v>
+        <v>3298.475358128931</v>
       </c>
       <c r="V32" t="n">
         <v>3048.200004255721</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>977.8576114276365</v>
+        <v>977.8576114276367</v>
       </c>
       <c r="C33" t="n">
-        <v>803.4045821465095</v>
+        <v>803.4045821465097</v>
       </c>
       <c r="D33" t="n">
-        <v>654.4701724852582</v>
+        <v>654.4701724852584</v>
       </c>
       <c r="E33" t="n">
-        <v>495.2327174798028</v>
+        <v>495.2327174798029</v>
       </c>
       <c r="F33" t="n">
         <v>348.6981595066878</v>
@@ -6771,10 +6771,10 @@
         <v>211.4558776748248</v>
       </c>
       <c r="H33" t="n">
-        <v>112.4629393425724</v>
+        <v>112.4629393425725</v>
       </c>
       <c r="I33" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J33" t="n">
         <v>210.5105735862335</v>
@@ -6819,10 +6819,10 @@
         <v>1561.684747418191</v>
       </c>
       <c r="X33" t="n">
-        <v>1353.833247212658</v>
+        <v>1353.833247212659</v>
       </c>
       <c r="Y33" t="n">
-        <v>1146.072948447704</v>
+        <v>1146.072948447705</v>
       </c>
     </row>
     <row r="34">
@@ -6835,37 +6835,37 @@
         <v>562.4586865960921</v>
       </c>
       <c r="C34" t="n">
-        <v>474.310037138546</v>
+        <v>474.3100371385459</v>
       </c>
       <c r="D34" t="n">
-        <v>404.9809311965711</v>
+        <v>404.9809311965709</v>
       </c>
       <c r="E34" t="n">
-        <v>337.8553710845388</v>
+        <v>337.8553710845385</v>
       </c>
       <c r="F34" t="n">
-        <v>271.7529570569892</v>
+        <v>271.7529570569889</v>
       </c>
       <c r="G34" t="n">
-        <v>184.1005775281942</v>
+        <v>184.1005775281938</v>
       </c>
       <c r="H34" t="n">
-        <v>112.1176451832358</v>
+        <v>112.1176451832354</v>
       </c>
       <c r="I34" t="n">
-        <v>73.41360470123713</v>
+        <v>73.41360470123715</v>
       </c>
       <c r="J34" t="n">
-        <v>146.6418139322272</v>
+        <v>146.6418139322271</v>
       </c>
       <c r="K34" t="n">
-        <v>345.8781191575663</v>
+        <v>345.8781191575661</v>
       </c>
       <c r="L34" t="n">
-        <v>634.215329226892</v>
+        <v>634.2153292268919</v>
       </c>
       <c r="M34" t="n">
-        <v>944.3114118605728</v>
+        <v>944.3114118605725</v>
       </c>
       <c r="N34" t="n">
         <v>1254.351439301971</v>
@@ -6898,10 +6898,10 @@
         <v>950.5266810567971</v>
       </c>
       <c r="X34" t="n">
-        <v>803.3246636291406</v>
+        <v>803.3246636291404</v>
       </c>
       <c r="Y34" t="n">
-        <v>663.319617955971</v>
+        <v>663.3196179559711</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1688.950839227093</v>
+        <v>1688.950839227094</v>
       </c>
       <c r="C35" t="n">
         <v>1425.334123783881</v>
@@ -6926,7 +6926,7 @@
         <v>586.3316722808768</v>
       </c>
       <c r="G35" t="n">
-        <v>274.961838285243</v>
+        <v>274.9618382852432</v>
       </c>
       <c r="H35" t="n">
         <v>65.89576755016412</v>
@@ -6935,28 +6935,28 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J35" t="n">
-        <v>285.4925656641198</v>
+        <v>118.0869166437667</v>
       </c>
       <c r="K35" t="n">
-        <v>735.3560456871492</v>
+        <v>247.0464382213431</v>
       </c>
       <c r="L35" t="n">
-        <v>1345.728099847961</v>
+        <v>857.4184923821549</v>
       </c>
       <c r="M35" t="n">
-        <v>1637.516041961357</v>
+        <v>1553.181554213124</v>
       </c>
       <c r="N35" t="n">
-        <v>1896.93182481696</v>
+        <v>2245.570792236592</v>
       </c>
       <c r="O35" t="n">
-        <v>2505.547710604637</v>
+        <v>2854.186678024268</v>
       </c>
       <c r="P35" t="n">
-        <v>2987.312905390717</v>
+        <v>3220.416380343103</v>
       </c>
       <c r="Q35" t="n">
-        <v>3271.876743309126</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R35" t="n">
         <v>3294.788377508206</v>
@@ -6968,7 +6968,7 @@
         <v>3144.574434711786</v>
       </c>
       <c r="U35" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V35" t="n">
         <v>2770.541218809424</v>
@@ -6977,7 +6977,7 @@
         <v>2523.118365036509</v>
       </c>
       <c r="X35" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y35" t="n">
         <v>1970.204877794016</v>
@@ -7023,10 +7023,10 @@
         <v>1110.66878660494</v>
       </c>
       <c r="M36" t="n">
-        <v>1450.171048031843</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N36" t="n">
-        <v>1699.583937590796</v>
+        <v>1589.026434305479</v>
       </c>
       <c r="O36" t="n">
         <v>1905.528209575437</v>
@@ -7087,7 +7087,7 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H37" t="n">
-        <v>80.04154000532426</v>
+        <v>80.04154000532425</v>
       </c>
       <c r="I37" t="n">
         <v>65.89576755016412</v>
@@ -7102,16 +7102,16 @@
         <v>395.1095597362278</v>
       </c>
       <c r="M37" t="n">
-        <v>626.025780815608</v>
+        <v>654.0818924024752</v>
       </c>
       <c r="N37" t="n">
-        <v>856.8859467027054</v>
+        <v>988.1914783369776</v>
       </c>
       <c r="O37" t="n">
-        <v>1082.162491772441</v>
+        <v>1185.411911819846</v>
       </c>
       <c r="P37" t="n">
-        <v>1330.647381318267</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q37" t="n">
         <v>1451.015232143526</v>
@@ -7129,10 +7129,10 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V37" t="n">
-        <v>881.4975321771003</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W37" t="n">
-        <v>697.426163637339</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X37" t="n">
         <v>574.7824142365208</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1688.950839227094</v>
+        <v>1688.950839227093</v>
       </c>
       <c r="C38" t="n">
         <v>1425.334123783881</v>
@@ -7157,19 +7157,19 @@
         <v>1172.41422667433</v>
       </c>
       <c r="E38" t="n">
-        <v>891.9717755732851</v>
+        <v>891.9717755732846</v>
       </c>
       <c r="F38" t="n">
-        <v>586.3316722808768</v>
+        <v>586.3316722808763</v>
       </c>
       <c r="G38" t="n">
-        <v>274.9618382852431</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H38" t="n">
-        <v>65.89576755016415</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="I38" t="n">
-        <v>65.89576755016415</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J38" t="n">
         <v>285.4925656641198</v>
@@ -7184,34 +7184,34 @@
         <v>1596.472763521026</v>
       </c>
       <c r="N38" t="n">
-        <v>1896.931824816962</v>
+        <v>1919.84345901604</v>
       </c>
       <c r="O38" t="n">
-        <v>2505.547710604638</v>
+        <v>2528.459344803717</v>
       </c>
       <c r="P38" t="n">
-        <v>2987.312905390719</v>
+        <v>3010.224539589797</v>
       </c>
       <c r="Q38" t="n">
-        <v>3271.876743309128</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="R38" t="n">
-        <v>3294.788377508207</v>
+        <v>3294.788377508206</v>
       </c>
       <c r="S38" t="n">
         <v>3252.399424646713</v>
       </c>
       <c r="T38" t="n">
-        <v>3144.574434711787</v>
+        <v>3144.574434711786</v>
       </c>
       <c r="U38" t="n">
         <v>2996.258304655796</v>
       </c>
       <c r="V38" t="n">
-        <v>2770.541218809425</v>
+        <v>2770.541218809424</v>
       </c>
       <c r="W38" t="n">
-        <v>2523.11836503651</v>
+        <v>2523.118365036509</v>
       </c>
       <c r="X38" t="n">
         <v>2254.998408272629</v>
@@ -7239,37 +7239,37 @@
         <v>487.7148803287298</v>
       </c>
       <c r="F39" t="n">
-        <v>341.1803223556148</v>
+        <v>341.1803223556147</v>
       </c>
       <c r="G39" t="n">
-        <v>203.9380405237519</v>
+        <v>203.9380405237518</v>
       </c>
       <c r="H39" t="n">
-        <v>104.9451021914995</v>
+        <v>104.9451021914994</v>
       </c>
       <c r="I39" t="n">
-        <v>65.89576755016415</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J39" t="n">
-        <v>78.16261144815576</v>
+        <v>78.16261144815573</v>
       </c>
       <c r="K39" t="n">
-        <v>284.5679430597095</v>
+        <v>439.1040108713502</v>
       </c>
       <c r="L39" t="n">
-        <v>831.3025938062943</v>
+        <v>985.838661617935</v>
       </c>
       <c r="M39" t="n">
-        <v>1060.247351947881</v>
+        <v>1268.223866806372</v>
       </c>
       <c r="N39" t="n">
-        <v>1309.660241506833</v>
+        <v>1517.636756365324</v>
       </c>
       <c r="O39" t="n">
-        <v>1905.528209575437</v>
+        <v>2113.504724433928</v>
       </c>
       <c r="P39" t="n">
-        <v>2366.76171892111</v>
+        <v>2574.738233779601</v>
       </c>
       <c r="Q39" t="n">
         <v>2622.386335855532</v>
@@ -7312,43 +7312,43 @@
         <v>319.442591826442</v>
       </c>
       <c r="D40" t="n">
-        <v>274.6717539113056</v>
+        <v>274.6717539113055</v>
       </c>
       <c r="E40" t="n">
-        <v>232.1044618261118</v>
+        <v>232.1044618261117</v>
       </c>
       <c r="F40" t="n">
-        <v>190.5603158254007</v>
+        <v>190.5603158254006</v>
       </c>
       <c r="G40" t="n">
-        <v>127.4662043234442</v>
+        <v>127.4662043234441</v>
       </c>
       <c r="H40" t="n">
-        <v>80.04154000532429</v>
+        <v>80.04154000532425</v>
       </c>
       <c r="I40" t="n">
-        <v>65.89576755016415</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="J40" t="n">
-        <v>93.95187913703163</v>
+        <v>65.89576755016412</v>
       </c>
       <c r="K40" t="n">
-        <v>317.2577428554752</v>
+        <v>185.9522112212027</v>
       </c>
       <c r="L40" t="n">
-        <v>526.4150913705002</v>
+        <v>395.1095597362278</v>
       </c>
       <c r="M40" t="n">
-        <v>757.3313124498804</v>
+        <v>729.275200863013</v>
       </c>
       <c r="N40" t="n">
-        <v>988.1914783369779</v>
+        <v>960.1353667501104</v>
       </c>
       <c r="O40" t="n">
-        <v>1185.411911819846</v>
+        <v>1260.605220280384</v>
       </c>
       <c r="P40" t="n">
-        <v>1330.647381318267</v>
+        <v>1433.896801365672</v>
       </c>
       <c r="Q40" t="n">
         <v>1451.015232143526</v>
@@ -7366,16 +7366,16 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V40" t="n">
-        <v>881.4975321771003</v>
+        <v>881.4975321771002</v>
       </c>
       <c r="W40" t="n">
-        <v>697.426163637339</v>
+        <v>697.4261636373388</v>
       </c>
       <c r="X40" t="n">
-        <v>574.7824142365209</v>
+        <v>574.7824142365208</v>
       </c>
       <c r="Y40" t="n">
-        <v>459.3356365901901</v>
+        <v>459.33563659019</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1688.950839227093</v>
+        <v>1688.950839227094</v>
       </c>
       <c r="C41" t="n">
-        <v>1425.33412378388</v>
+        <v>1425.334123783881</v>
       </c>
       <c r="D41" t="n">
-        <v>1172.414226674329</v>
+        <v>1172.41422667433</v>
       </c>
       <c r="E41" t="n">
-        <v>891.9717755732843</v>
+        <v>891.9717755732852</v>
       </c>
       <c r="F41" t="n">
-        <v>586.3316722808759</v>
+        <v>586.3316722808768</v>
       </c>
       <c r="G41" t="n">
-        <v>274.9618382852432</v>
+        <v>274.9618382852429</v>
       </c>
       <c r="H41" t="n">
         <v>65.89576755016412</v>
@@ -7409,52 +7409,52 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J41" t="n">
-        <v>118.0869166437667</v>
+        <v>285.4925656641198</v>
       </c>
       <c r="K41" t="n">
-        <v>567.9503966667962</v>
+        <v>735.3560456871492</v>
       </c>
       <c r="L41" t="n">
-        <v>1178.322450827608</v>
+        <v>941.7529801303882</v>
       </c>
       <c r="M41" t="n">
-        <v>1874.085512658577</v>
+        <v>1637.516041961358</v>
       </c>
       <c r="N41" t="n">
-        <v>2566.474750682045</v>
+        <v>1896.931824816961</v>
       </c>
       <c r="O41" t="n">
-        <v>2798.098457019604</v>
+        <v>2505.547710604637</v>
       </c>
       <c r="P41" t="n">
-        <v>3197.504746144023</v>
+        <v>2987.312905390718</v>
       </c>
       <c r="Q41" t="n">
-        <v>3271.876743309126</v>
+        <v>3271.876743309127</v>
       </c>
       <c r="R41" t="n">
         <v>3294.788377508206</v>
       </c>
       <c r="S41" t="n">
-        <v>3252.399424646712</v>
+        <v>3252.399424646714</v>
       </c>
       <c r="T41" t="n">
-        <v>3144.574434711786</v>
+        <v>3144.574434711787</v>
       </c>
       <c r="U41" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V41" t="n">
-        <v>2770.541218809423</v>
+        <v>2770.541218809424</v>
       </c>
       <c r="W41" t="n">
-        <v>2523.118365036508</v>
+        <v>2523.118365036509</v>
       </c>
       <c r="X41" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y41" t="n">
-        <v>1970.204877794015</v>
+        <v>1970.204877794016</v>
       </c>
     </row>
     <row r="42">
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>383.0329732571495</v>
+        <v>383.0329732571498</v>
       </c>
       <c r="C43" t="n">
-        <v>319.4425918264419</v>
+        <v>319.4425918264421</v>
       </c>
       <c r="D43" t="n">
-        <v>274.6717539113054</v>
+        <v>274.6717539113056</v>
       </c>
       <c r="E43" t="n">
-        <v>232.1044618261116</v>
+        <v>232.1044618261118</v>
       </c>
       <c r="F43" t="n">
-        <v>190.5603158254006</v>
+        <v>190.5603158254007</v>
       </c>
       <c r="G43" t="n">
-        <v>127.4662043234441</v>
+        <v>127.4662043234442</v>
       </c>
       <c r="H43" t="n">
-        <v>80.04154000532424</v>
+        <v>80.04154000532428</v>
       </c>
       <c r="I43" t="n">
         <v>65.89576755016412</v>
@@ -7570,22 +7570,22 @@
         <v>65.89576755016412</v>
       </c>
       <c r="K43" t="n">
-        <v>214.0083228080698</v>
+        <v>185.9522112212027</v>
       </c>
       <c r="L43" t="n">
-        <v>423.1656713230949</v>
+        <v>395.1095597362278</v>
       </c>
       <c r="M43" t="n">
-        <v>757.3313124498801</v>
+        <v>626.025780815608</v>
       </c>
       <c r="N43" t="n">
-        <v>988.1914783369775</v>
+        <v>856.8859467027054</v>
       </c>
       <c r="O43" t="n">
-        <v>1288.661331867251</v>
+        <v>1157.355800232979</v>
       </c>
       <c r="P43" t="n">
-        <v>1433.896801365672</v>
+        <v>1405.840689778804</v>
       </c>
       <c r="Q43" t="n">
         <v>1451.015232143526</v>
@@ -7603,16 +7603,16 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V43" t="n">
-        <v>881.4975321771001</v>
+        <v>881.4975321771007</v>
       </c>
       <c r="W43" t="n">
-        <v>697.4261636373387</v>
+        <v>697.4261636373393</v>
       </c>
       <c r="X43" t="n">
-        <v>574.7824142365207</v>
+        <v>574.7824142365212</v>
       </c>
       <c r="Y43" t="n">
-        <v>459.3356365901899</v>
+        <v>459.3356365901903</v>
       </c>
     </row>
     <row r="44">
@@ -7625,19 +7625,19 @@
         <v>1688.950839227093</v>
       </c>
       <c r="C44" t="n">
-        <v>1425.33412378388</v>
+        <v>1425.334123783881</v>
       </c>
       <c r="D44" t="n">
-        <v>1172.414226674329</v>
+        <v>1172.41422667433</v>
       </c>
       <c r="E44" t="n">
-        <v>891.9717755732845</v>
+        <v>891.971775573285</v>
       </c>
       <c r="F44" t="n">
-        <v>586.3316722808763</v>
+        <v>586.3316722808768</v>
       </c>
       <c r="G44" t="n">
-        <v>274.9618382852429</v>
+        <v>274.961838285243</v>
       </c>
       <c r="H44" t="n">
         <v>65.89576755016412</v>
@@ -7652,22 +7652,22 @@
         <v>735.3560456871492</v>
       </c>
       <c r="L44" t="n">
-        <v>1345.728099847961</v>
+        <v>953.797923120428</v>
       </c>
       <c r="M44" t="n">
-        <v>1596.472763521026</v>
+        <v>1204.542586793493</v>
       </c>
       <c r="N44" t="n">
-        <v>1896.93182481696</v>
+        <v>1896.931824816961</v>
       </c>
       <c r="O44" t="n">
         <v>2505.547710604637</v>
       </c>
       <c r="P44" t="n">
-        <v>2987.312905390717</v>
+        <v>2987.312905390718</v>
       </c>
       <c r="Q44" t="n">
-        <v>3271.876743309126</v>
+        <v>3271.876743309127</v>
       </c>
       <c r="R44" t="n">
         <v>3294.788377508206</v>
@@ -7679,19 +7679,19 @@
         <v>3144.574434711786</v>
       </c>
       <c r="U44" t="n">
-        <v>2996.258304655795</v>
+        <v>2996.258304655796</v>
       </c>
       <c r="V44" t="n">
-        <v>2770.541218809423</v>
+        <v>2770.541218809424</v>
       </c>
       <c r="W44" t="n">
-        <v>2523.118365036508</v>
+        <v>2523.118365036509</v>
       </c>
       <c r="X44" t="n">
-        <v>2254.998408272628</v>
+        <v>2254.998408272629</v>
       </c>
       <c r="Y44" t="n">
-        <v>1970.204877794015</v>
+        <v>1970.204877794016</v>
       </c>
     </row>
     <row r="45">
@@ -7725,19 +7725,19 @@
         <v>65.89576755016412</v>
       </c>
       <c r="J45" t="n">
-        <v>78.16261144815573</v>
+        <v>202.9927364351605</v>
       </c>
       <c r="K45" t="n">
-        <v>284.5679430597095</v>
+        <v>563.9341358583549</v>
       </c>
       <c r="L45" t="n">
-        <v>831.3025938062943</v>
+        <v>1110.66878660494</v>
       </c>
       <c r="M45" t="n">
-        <v>1060.247351947881</v>
+        <v>1339.613544746526</v>
       </c>
       <c r="N45" t="n">
-        <v>1309.660241506833</v>
+        <v>1589.026434305479</v>
       </c>
       <c r="O45" t="n">
         <v>1905.528209575437</v>
@@ -7798,7 +7798,7 @@
         <v>127.4662043234441</v>
       </c>
       <c r="H46" t="n">
-        <v>80.04154000532425</v>
+        <v>80.04154000532426</v>
       </c>
       <c r="I46" t="n">
         <v>65.89576755016412</v>
@@ -7807,22 +7807,22 @@
         <v>65.89576755016412</v>
       </c>
       <c r="K46" t="n">
-        <v>289.2016312686077</v>
+        <v>185.9522112212027</v>
       </c>
       <c r="L46" t="n">
-        <v>601.6083998310378</v>
+        <v>395.1095597362278</v>
       </c>
       <c r="M46" t="n">
-        <v>860.5807324972853</v>
+        <v>626.025780815608</v>
       </c>
       <c r="N46" t="n">
-        <v>1091.440898384383</v>
+        <v>856.8859467027054</v>
       </c>
       <c r="O46" t="n">
-        <v>1288.661331867251</v>
+        <v>1082.162491772441</v>
       </c>
       <c r="P46" t="n">
-        <v>1433.896801365672</v>
+        <v>1330.647381318267</v>
       </c>
       <c r="Q46" t="n">
         <v>1451.015232143526</v>
@@ -7840,10 +7840,10 @@
         <v>1030.836218885788</v>
       </c>
       <c r="V46" t="n">
-        <v>881.4975321771002</v>
+        <v>881.4975321771003</v>
       </c>
       <c r="W46" t="n">
-        <v>697.4261636373388</v>
+        <v>697.426163637339</v>
       </c>
       <c r="X46" t="n">
         <v>574.7824142365208</v>
@@ -8702,13 +8702,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>212.2337799195555</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.2337799195562</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>120.3177921872706</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>217.1629418842805</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>137.3016188671911</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>240.3957561842257</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,13 +8927,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>225.5777098071505</v>
       </c>
       <c r="L14" t="n">
-        <v>160.7252713562825</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>398.888523248788</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,13 +8942,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9012,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>111.6742457427436</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>36.27469510595029</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>18.26247641557492</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>398.8885232487883</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>390.1298170038004</v>
+        <v>104.0705026647011</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>111.6742457427426</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>111.674245742744</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9407,22 +9407,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>8.207996285734254</v>
+        <v>90.35253422455136</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>111.6742457427436</v>
+        <v>111.6742457427426</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9635,19 +9635,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>40.79411669389674</v>
+        <v>4.54450797542475</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>398.8885232487882</v>
+        <v>398.8885232487883</v>
       </c>
       <c r="N23" t="n">
-        <v>390.1298170038002</v>
+        <v>390.1298170038004</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>42.57335502542708</v>
@@ -9723,13 +9723,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>111.6742457427436</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>111.674245742744</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9881,22 +9881,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>436.6958919616048</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>253.0457480602487</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>42.57335502542705</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>111.6742457427437</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>111.674245742744</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10127,13 +10127,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>195.7795547994364</v>
+        <v>229.9026832126943</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>42.57335502542708</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>436.6958919616047</v>
       </c>
       <c r="O32" t="n">
-        <v>325.1537650224279</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>41.45785701043528</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>205.0961905278003</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>111.6742457427445</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>41.4578570104365</v>
+        <v>64.6009218579905</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>42.57335502542708</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,13 +10902,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>108.3681988190021</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>53.98024954227293</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>9.605538068053676</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>238.607894371825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11300,13 +11300,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>21.77214714890195</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>41.45785701043513</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>108.3681988190021</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>111.6742457427445</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>287.8493297879132</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>277.2594796375886</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>329.4524837586171</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>335.1249171548102</v>
       </c>
       <c r="H11" t="n">
-        <v>87.18560362481331</v>
+        <v>4.22385011447264</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>68.83384483201115</v>
+        <v>68.8338448320111</v>
       </c>
       <c r="T11" t="n">
-        <v>133.6155215347106</v>
+        <v>133.6155215347105</v>
       </c>
       <c r="U11" t="n">
-        <v>173.7017502545638</v>
+        <v>173.7017502545637</v>
       </c>
       <c r="V11" t="n">
         <v>250.3286964870406</v>
       </c>
       <c r="W11" t="n">
-        <v>271.8174067343187</v>
+        <v>271.8174067343186</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>292.3075386953747</v>
       </c>
       <c r="Y11" t="n">
-        <v>308.8143766729593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,10 +23422,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>60.9393771540186</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>60.93937715402051</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>287.8493297879132</v>
+        <v>287.8493297879131</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>211.3553972536812</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>26.86878149913295</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23552,16 +23552,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>250.3286964870406</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>271.8174067343186</v>
       </c>
       <c r="X14" t="n">
         <v>292.3075386953747</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>216.7354685055356</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>60.93937715401778</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.93937715401981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.589768316989648e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.968558980384842e-13</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1.577404873387422e-12</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1042381.44487225</v>
+        <v>1042381.444872249</v>
       </c>
     </row>
     <row r="6">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1327583.305780443</v>
+        <v>1327583.305780442</v>
       </c>
     </row>
     <row r="15">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>204819.0846792597</v>
+      </c>
+      <c r="C2" t="n">
         <v>204819.0846792596</v>
-      </c>
-      <c r="C2" t="n">
-        <v>204819.0846792597</v>
       </c>
       <c r="D2" t="n">
         <v>204819.0846792596</v>
@@ -26335,7 +26335,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="J2" t="n">
-        <v>205260.4424660709</v>
+        <v>205260.442466071</v>
       </c>
       <c r="K2" t="n">
         <v>205260.442466071</v>
@@ -26347,7 +26347,7 @@
         <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660711</v>
+        <v>205260.4424660712</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660711</v>
@@ -26375,10 +26375,10 @@
         <v>746256.1644166391</v>
       </c>
       <c r="F3" t="n">
-        <v>58378.43698898874</v>
+        <v>58378.43698898877</v>
       </c>
       <c r="G3" t="n">
-        <v>59877.36107027678</v>
+        <v>59877.36107027676</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>73573.91951487765</v>
+        <v>73573.91951487758</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>107779.8354573343</v>
       </c>
       <c r="N3" t="n">
-        <v>49902.8201154592</v>
+        <v>49902.82011545909</v>
       </c>
       <c r="O3" t="n">
-        <v>4106.365438248929</v>
+        <v>4106.365438248872</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>430898.5094426759</v>
       </c>
       <c r="E4" t="n">
-        <v>132767.5489705624</v>
+        <v>132767.5489705625</v>
       </c>
       <c r="F4" t="n">
-        <v>153149.3497879656</v>
+        <v>153149.3497879657</v>
       </c>
       <c r="G4" t="n">
         <v>202349.5883717044</v>
@@ -26439,13 +26439,13 @@
         <v>202349.5883717044</v>
       </c>
       <c r="J4" t="n">
+        <v>189330.9659432834</v>
+      </c>
+      <c r="K4" t="n">
         <v>189330.9659432833</v>
       </c>
-      <c r="K4" t="n">
-        <v>189330.9659432834</v>
-      </c>
       <c r="L4" t="n">
-        <v>189330.9659432834</v>
+        <v>189330.9659432833</v>
       </c>
       <c r="M4" t="n">
         <v>193885.545962394</v>
@@ -26479,31 +26479,31 @@
         <v>48708.52866658149</v>
       </c>
       <c r="F5" t="n">
-        <v>61096.2664946687</v>
+        <v>61096.26649466869</v>
       </c>
       <c r="G5" t="n">
+        <v>67388.55382944006</v>
+      </c>
+      <c r="H5" t="n">
+        <v>67388.55382944006</v>
+      </c>
+      <c r="I5" t="n">
         <v>67388.55382944009</v>
       </c>
-      <c r="H5" t="n">
-        <v>67388.55382944008</v>
-      </c>
-      <c r="I5" t="n">
-        <v>67388.55382944008</v>
-      </c>
       <c r="J5" t="n">
+        <v>77453.80406787344</v>
+      </c>
+      <c r="K5" t="n">
+        <v>77453.80406787344</v>
+      </c>
+      <c r="L5" t="n">
         <v>77453.80406787345</v>
-      </c>
-      <c r="K5" t="n">
-        <v>77453.80406787345</v>
-      </c>
-      <c r="L5" t="n">
-        <v>77453.80406787344</v>
       </c>
       <c r="M5" t="n">
         <v>73784.19097745875</v>
       </c>
       <c r="N5" t="n">
-        <v>73784.19097745878</v>
+        <v>73784.19097745875</v>
       </c>
       <c r="O5" t="n">
         <v>73784.19097745875</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-259707.0247634162</v>
+        <v>-259711.4383412843</v>
       </c>
       <c r="C6" t="n">
-        <v>-259707.0247634162</v>
+        <v>-259711.4383412844</v>
       </c>
       <c r="D6" t="n">
-        <v>-259707.0247634162</v>
+        <v>-259711.4383412843</v>
       </c>
       <c r="E6" t="n">
-        <v>-759839.615440998</v>
+        <v>-760213.2935995311</v>
       </c>
       <c r="F6" t="n">
-        <v>-88996.57096856672</v>
+        <v>-89212.90057019707</v>
       </c>
       <c r="G6" t="n">
         <v>-124355.0608053505</v>
       </c>
       <c r="H6" t="n">
-        <v>-64477.69973507362</v>
+        <v>-64477.69973507369</v>
       </c>
       <c r="I6" t="n">
-        <v>-64477.69973507377</v>
+        <v>-64477.69973507375</v>
       </c>
       <c r="J6" t="n">
         <v>-135098.2470599635</v>
       </c>
       <c r="K6" t="n">
-        <v>-61524.32754508583</v>
+        <v>-61524.32754508576</v>
       </c>
       <c r="L6" t="n">
-        <v>-121401.6886153627</v>
+        <v>-121401.6886153626</v>
       </c>
       <c r="M6" t="n">
         <v>-170189.129931116</v>
       </c>
       <c r="N6" t="n">
-        <v>-112312.1145892409</v>
+        <v>-112312.1145892407</v>
       </c>
       <c r="O6" t="n">
-        <v>-66515.65991203056</v>
+        <v>-66515.65991203047</v>
       </c>
       <c r="P6" t="n">
         <v>-62409.29447378166</v>
@@ -26692,28 +26692,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="G2" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H2" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="I2" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="J2" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K2" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="L2" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="M2" t="n">
         <v>104.2923434822273</v>
@@ -26759,7 +26759,7 @@
         <v>685.1217713360854</v>
       </c>
       <c r="J3" t="n">
-        <v>685.1217713360855</v>
+        <v>685.1217713360854</v>
       </c>
       <c r="K3" t="n">
         <v>685.1217713360854</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404289</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023893</v>
       </c>
       <c r="G4" t="n">
+        <v>652.1659613023893</v>
+      </c>
+      <c r="H4" t="n">
+        <v>652.1659613023893</v>
+      </c>
+      <c r="I4" t="n">
         <v>652.1659613023896</v>
       </c>
-      <c r="H4" t="n">
-        <v>652.1659613023895</v>
-      </c>
-      <c r="I4" t="n">
-        <v>652.1659613023895</v>
-      </c>
       <c r="J4" t="n">
+        <v>917.6700587654642</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.6700587654642</v>
+      </c>
+      <c r="L4" t="n">
         <v>917.6700587654643</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.6700587654643</v>
-      </c>
-      <c r="L4" t="n">
-        <v>917.6700587654641</v>
       </c>
       <c r="M4" t="n">
         <v>823.6970943770515</v>
       </c>
       <c r="N4" t="n">
-        <v>823.6970943770518</v>
+        <v>823.6970943770515</v>
       </c>
       <c r="O4" t="n">
-        <v>823.6970943770515</v>
+        <v>823.6970943770516</v>
       </c>
       <c r="P4" t="n">
-        <v>823.6970943770515</v>
+        <v>823.6970943770516</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>74.84670133784597</v>
+        <v>74.84670133784596</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.132956797811133</v>
+        <v>5.132956797811119</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>74.84670133784601</v>
       </c>
       <c r="M2" t="n">
-        <v>24.31268534657009</v>
+        <v>24.31268534657016</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811161</v>
+        <v>5.13295679781109</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>448.4202733404289</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="F4" t="n">
         <v>203.7456879619606</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>265.5040974630748</v>
+        <v>265.5040974630746</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>354.4473089520163</v>
+        <v>354.4473089520159</v>
       </c>
       <c r="N4" t="n">
-        <v>203.7456879619609</v>
+        <v>203.7456879619605</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.002665031701325e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>74.84670133784597</v>
+        <v>74.84670133784596</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.132956797811133</v>
+        <v>5.132956797811119</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>448.4202733404289</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="N4" t="n">
         <v>203.7456879619606</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="C11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="D11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="E11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="H11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="U11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="W11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y11" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
     </row>
     <row r="12">
@@ -28166,28 +28166,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="C12" t="n">
-        <v>77.4235619830943</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="H12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I12" t="n">
-        <v>7.798885397244419</v>
+        <v>7.798885397244714</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28217,25 +28217,25 @@
         <v>8.661760614590023</v>
       </c>
       <c r="S12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T12" t="n">
-        <v>77.4235619830943</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="W12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="C13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="D13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="E13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="F13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="G13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="H13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="I13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="J13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="K13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="L13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="M13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="N13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="O13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="P13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="R13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="S13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="T13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="U13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="V13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="W13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="X13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
       <c r="Y13" t="n">
-        <v>77.4235619830943</v>
+        <v>77.42356198309434</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="C14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="D14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="E14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="F14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="G14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="H14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="I14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="T14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="U14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="V14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="W14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="X14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="Y14" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
     </row>
     <row r="15">
@@ -28421,7 +28421,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1.662670001678634e-12</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -28454,7 +28454,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="C16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="D16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="E16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="F16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="G16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="H16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="I16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="J16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="K16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="L16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="M16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="N16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="O16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="P16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="R16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="S16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="T16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="U16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="V16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="W16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="X16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
       <c r="Y16" t="n">
-        <v>77.4235619830943</v>
+        <v>77.4235619830944</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="E17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="F17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="G17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="I17" t="n">
         <v>104.2923434822273</v>
@@ -28615,22 +28615,22 @@
         <v>146.2574068151054</v>
       </c>
       <c r="T17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="U17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="V17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="W17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y17" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="18">
@@ -28694,7 +28694,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.534772309241816e-12</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -28719,10 +28719,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C19" t="n">
-        <v>152.2702633209403</v>
+        <v>118.1359362781908</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -28731,19 +28731,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>151.2427611571659</v>
       </c>
       <c r="I19" t="n">
         <v>118.2966582128358</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>121.7423703767059</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T19" t="n">
-        <v>8.227049059266363</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="V19" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="W19" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X19" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y19" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="E20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="F20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="G20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="I20" t="n">
         <v>104.2923434822273</v>
@@ -28852,22 +28852,22 @@
         <v>146.2574068151054</v>
       </c>
       <c r="T20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="U20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="V20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="W20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y20" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="21">
@@ -28925,10 +28925,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.175948227682966e-12</v>
       </c>
       <c r="S21" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -28956,10 +28956,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C22" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -28971,16 +28971,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>151.2427611571659</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>118.2966582128358</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29007,25 +29007,25 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S22" t="n">
-        <v>126.5237072721023</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>3.242781199494118</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2702633209403</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>152.2702633209403</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X22" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y22" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="E23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="F23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="G23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="H23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="I23" t="n">
         <v>104.2923434822273</v>
@@ -29089,22 +29089,22 @@
         <v>146.2574068151054</v>
       </c>
       <c r="T23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="U23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="V23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="W23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y23" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="24">
@@ -29168,7 +29168,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>6.536993168992922e-13</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -29193,16 +29193,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -29217,7 +29217,7 @@
         <v>118.2966582128358</v>
       </c>
       <c r="J25" t="n">
-        <v>3.418250548669352</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29244,25 +29244,25 @@
         <v>121.7423703767059</v>
       </c>
       <c r="S25" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="T25" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2702633209403</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>152.2702633209403</v>
+        <v>3.24278119949426</v>
       </c>
       <c r="W25" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="X25" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
       <c r="Y25" t="n">
-        <v>152.2702633209403</v>
+        <v>152.2702633209404</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y26" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="C28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="D28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="E28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="F28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="G28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="H28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="I28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="J28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="K28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="L28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="M28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="N28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="O28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="P28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Q28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="R28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="S28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="T28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="U28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="V28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="W28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="X28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
       <c r="Y28" t="n">
-        <v>79.9796581356571</v>
+        <v>79.97965813565713</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="C29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="D29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="E29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="F29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="G29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="H29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="I29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="T29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="U29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="V29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="W29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="X29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="Y29" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="C31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="D31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="E31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="F31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="G31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="H31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="I31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="J31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="K31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="L31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="M31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="N31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="O31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="P31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="Q31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="R31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="S31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="T31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="U31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="V31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="W31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="X31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
       <c r="Y31" t="n">
-        <v>79.97965813565713</v>
+        <v>79.97965813565706</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y32" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="C34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="D34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="E34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="F34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="G34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="H34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="I34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="J34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="K34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="L34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="M34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="N34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="O34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="P34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Q34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="R34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="S34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="T34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="U34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="V34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="W34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="X34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
       <c r="Y34" t="n">
-        <v>79.97965813565717</v>
+        <v>79.97965813565712</v>
       </c>
     </row>
     <row r="35">
@@ -30174,19 +30174,19 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>28.33950665340126</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="O37" t="n">
-        <v>28.33950665340149</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>104.2923434822273</v>
       </c>
       <c r="Q37" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>104.2923434822273</v>
@@ -30402,28 +30402,28 @@
         <v>104.2923434822273</v>
       </c>
       <c r="J40" t="n">
-        <v>34.35127667694745</v>
+        <v>6.011770023545964</v>
       </c>
       <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>28.33950665340126</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>104.2923434822273</v>
@@ -30642,13 +30642,13 @@
         <v>6.011770023545964</v>
       </c>
       <c r="K43" t="n">
-        <v>28.33950665340117</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>104.2923434822273</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30657,10 +30657,10 @@
         <v>104.2923434822273</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>104.2923434822273</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>28.33950665340173</v>
       </c>
       <c r="R43" t="n">
         <v>104.2923434822273</v>
@@ -30879,25 +30879,25 @@
         <v>6.011770023545964</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>28.33950665340149</v>
+      </c>
+      <c r="P46" t="n">
         <v>104.2923434822273</v>
       </c>
-      <c r="L46" t="n">
+      <c r="Q46" t="n">
         <v>104.2923434822273</v>
-      </c>
-      <c r="M46" t="n">
-        <v>28.33950665340137</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>104.2923434822273</v>
@@ -32935,13 +32935,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.754258377230493</v>
+        <v>2.754258377230492</v>
       </c>
       <c r="H26" t="n">
         <v>28.20704860581179</v>
       </c>
       <c r="I26" t="n">
-        <v>106.1835460881787</v>
+        <v>106.1835460881786</v>
       </c>
       <c r="J26" t="n">
         <v>233.7642369444667</v>
@@ -32953,31 +32953,31 @@
         <v>434.6426288648013</v>
       </c>
       <c r="M26" t="n">
-        <v>483.6236712808741</v>
+        <v>483.623671280874</v>
       </c>
       <c r="N26" t="n">
-        <v>491.4492078951803</v>
+        <v>491.4492078951802</v>
       </c>
       <c r="O26" t="n">
-        <v>464.0615511565945</v>
+        <v>464.0615511565944</v>
       </c>
       <c r="P26" t="n">
-        <v>396.0657974687167</v>
+        <v>396.0657974687166</v>
       </c>
       <c r="Q26" t="n">
-        <v>297.4289193341496</v>
+        <v>297.4289193341495</v>
       </c>
       <c r="R26" t="n">
-        <v>173.0121827887051</v>
+        <v>173.012182788705</v>
       </c>
       <c r="S26" t="n">
-        <v>62.76266277113992</v>
+        <v>62.7626627711399</v>
       </c>
       <c r="T26" t="n">
         <v>12.05676604632649</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2203406701784394</v>
+        <v>0.2203406701784393</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,43 +33020,43 @@
         <v>14.23243528756661</v>
       </c>
       <c r="I27" t="n">
-        <v>50.73779155649314</v>
+        <v>50.73779155649313</v>
       </c>
       <c r="J27" t="n">
-        <v>139.2283780787795</v>
+        <v>139.2283780787794</v>
       </c>
       <c r="K27" t="n">
-        <v>237.9634741064214</v>
+        <v>237.9634741064213</v>
       </c>
       <c r="L27" t="n">
-        <v>319.9712574527634</v>
+        <v>319.9712574527633</v>
       </c>
       <c r="M27" t="n">
-        <v>373.3913653781666</v>
+        <v>373.3913653781665</v>
       </c>
       <c r="N27" t="n">
         <v>383.2739237590428</v>
       </c>
       <c r="O27" t="n">
-        <v>350.6207616006475</v>
+        <v>350.6207616006474</v>
       </c>
       <c r="P27" t="n">
-        <v>281.4040724568915</v>
+        <v>281.4040724568914</v>
       </c>
       <c r="Q27" t="n">
         <v>188.1111701223154</v>
       </c>
       <c r="R27" t="n">
-        <v>91.49607353805312</v>
+        <v>91.49607353805311</v>
       </c>
       <c r="S27" t="n">
-        <v>27.37255378875774</v>
+        <v>27.37255378875773</v>
       </c>
       <c r="T27" t="n">
-        <v>5.939876489225117</v>
+        <v>5.939876489225116</v>
       </c>
       <c r="U27" t="n">
-        <v>0.09695119405699328</v>
+        <v>0.09695119405699326</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33102,7 +33102,7 @@
         <v>37.15381671442248</v>
       </c>
       <c r="J28" t="n">
-        <v>87.34741009312683</v>
+        <v>87.34741009312681</v>
       </c>
       <c r="K28" t="n">
         <v>143.5386268471339</v>
@@ -33120,22 +33120,22 @@
         <v>174.6274311595649</v>
       </c>
       <c r="P28" t="n">
-        <v>149.4239351779554</v>
+        <v>149.4239351779553</v>
       </c>
       <c r="Q28" t="n">
         <v>103.4533874717489</v>
       </c>
       <c r="R28" t="n">
-        <v>55.55102100046357</v>
+        <v>55.55102100046356</v>
       </c>
       <c r="S28" t="n">
-        <v>21.53079402707009</v>
+        <v>21.53079402707008</v>
       </c>
       <c r="T28" t="n">
-        <v>5.278807090622297</v>
+        <v>5.278807090622296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.06738902668879537</v>
+        <v>0.06738902668879536</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -35422,13 +35422,13 @@
         <v>262.0361442985892</v>
       </c>
       <c r="O11" t="n">
-        <v>233.9633397349077</v>
+        <v>446.1971196544632</v>
       </c>
       <c r="P11" t="n">
         <v>164.8328017134471</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.3570093792562</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R11" t="n">
         <v>23.14306484755537</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>132.7085435993833</v>
+        <v>12.39075141211273</v>
       </c>
       <c r="K12" t="n">
-        <v>364.5872721446409</v>
+        <v>100.1220351320623</v>
       </c>
       <c r="L12" t="n">
         <v>181.4168776728891</v>
       </c>
       <c r="M12" t="n">
-        <v>231.2573314561482</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="N12" t="n">
-        <v>251.9322116757095</v>
+        <v>389.2338305429006</v>
       </c>
       <c r="O12" t="n">
-        <v>208.024517156203</v>
+        <v>448.4202733404287</v>
       </c>
       <c r="P12" t="n">
         <v>147.4296650425612</v>
       </c>
       <c r="Q12" t="n">
-        <v>258.206683772143</v>
+        <v>48.12939603629388</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.41179195954834</v>
+        <v>71.41179195954838</v>
       </c>
       <c r="K13" t="n">
-        <v>198.6926970043453</v>
+        <v>198.6926970043454</v>
       </c>
       <c r="L13" t="n">
-        <v>288.6936109881701</v>
+        <v>288.6936109881702</v>
       </c>
       <c r="M13" t="n">
-        <v>310.6722701440844</v>
+        <v>310.6722701440845</v>
       </c>
       <c r="N13" t="n">
         <v>310.6156487377382</v>
@@ -35583,10 +35583,10 @@
         <v>276.6361210566989</v>
       </c>
       <c r="P13" t="n">
-        <v>224.1260564259431</v>
+        <v>224.1260564259432</v>
       </c>
       <c r="Q13" t="n">
-        <v>94.71490620314881</v>
+        <v>94.71490620314886</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>221.8149475898542</v>
       </c>
       <c r="K14" t="n">
-        <v>454.4075555788177</v>
+        <v>355.8398528148035</v>
       </c>
       <c r="L14" t="n">
-        <v>359.6014852510965</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M14" t="n">
-        <v>253.2774380536013</v>
+        <v>652.1659613023893</v>
       </c>
       <c r="N14" t="n">
         <v>262.0361442985892</v>
@@ -35662,13 +35662,13 @@
         <v>233.9633397349077</v>
       </c>
       <c r="P14" t="n">
-        <v>486.6315098849297</v>
+        <v>164.8328017134471</v>
       </c>
       <c r="Q14" t="n">
-        <v>287.4382201196047</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R14" t="n">
-        <v>23.14306484755537</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35732,16 @@
         <v>552.2572229763483</v>
       </c>
       <c r="M15" t="n">
-        <v>342.9315771988917</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N15" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O15" t="n">
-        <v>208.024517156203</v>
+        <v>601.8868364329326</v>
       </c>
       <c r="P15" t="n">
-        <v>465.8924336824983</v>
+        <v>183.7043601485115</v>
       </c>
       <c r="Q15" t="n">
         <v>258.206683772143</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.41179195954834</v>
+        <v>71.41179195954844</v>
       </c>
       <c r="K16" t="n">
-        <v>198.6926970043453</v>
+        <v>198.6926970043455</v>
       </c>
       <c r="L16" t="n">
-        <v>288.6936109881701</v>
+        <v>288.6936109881702</v>
       </c>
       <c r="M16" t="n">
-        <v>310.6722701440844</v>
+        <v>310.6722701440845</v>
       </c>
       <c r="N16" t="n">
-        <v>310.6156487377382</v>
+        <v>310.6156487377383</v>
       </c>
       <c r="O16" t="n">
-        <v>276.6361210566989</v>
+        <v>276.636121056699</v>
       </c>
       <c r="P16" t="n">
-        <v>224.1260564259431</v>
+        <v>224.1260564259432</v>
       </c>
       <c r="Q16" t="n">
-        <v>94.71490620314881</v>
+        <v>94.71490620314891</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898542</v>
       </c>
       <c r="K17" t="n">
         <v>130.2621430076529</v>
       </c>
       <c r="L17" t="n">
-        <v>217.138690310389</v>
+        <v>198.876213894814</v>
       </c>
       <c r="M17" t="n">
-        <v>652.1659613023896</v>
+        <v>253.2774380536013</v>
       </c>
       <c r="N17" t="n">
-        <v>652.1659613023896</v>
+        <v>366.1066469632903</v>
       </c>
       <c r="O17" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P17" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q17" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R17" t="n">
         <v>23.14306484755537</v>
@@ -35969,13 +35969,13 @@
         <v>552.2572229763483</v>
       </c>
       <c r="M18" t="n">
-        <v>231.2573314561482</v>
+        <v>342.9315771988908</v>
       </c>
       <c r="N18" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O18" t="n">
-        <v>319.698762898947</v>
+        <v>208.024517156203</v>
       </c>
       <c r="P18" t="n">
         <v>465.8924336824983</v>
@@ -36127,22 +36127,22 @@
         <v>616.5374284452645</v>
       </c>
       <c r="M20" t="n">
-        <v>261.4854343393355</v>
+        <v>343.6299722781526</v>
       </c>
       <c r="N20" t="n">
         <v>262.0361442985892</v>
       </c>
       <c r="O20" t="n">
-        <v>614.763520997653</v>
+        <v>233.9633397349077</v>
       </c>
       <c r="P20" t="n">
-        <v>164.8328017134471</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q20" t="n">
         <v>287.4382201196047</v>
       </c>
       <c r="R20" t="n">
-        <v>23.14306484755537</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>251.9322116757095</v>
       </c>
       <c r="O21" t="n">
-        <v>319.6987628989465</v>
+        <v>319.6987628989456</v>
       </c>
       <c r="P21" t="n">
         <v>465.8924336824983</v>
@@ -36355,19 +36355,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>221.8149475898542</v>
+        <v>52.7183324177804</v>
       </c>
       <c r="K23" t="n">
-        <v>171.0562597015497</v>
+        <v>134.8066509830777</v>
       </c>
       <c r="L23" t="n">
-        <v>198.876213894814</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M23" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="N23" t="n">
-        <v>652.1659613023895</v>
+        <v>652.1659613023896</v>
       </c>
       <c r="O23" t="n">
         <v>233.9633397349077</v>
@@ -36376,7 +36376,7 @@
         <v>164.8328017134471</v>
       </c>
       <c r="Q23" t="n">
-        <v>287.4382201196047</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36443,13 +36443,13 @@
         <v>552.2572229763483</v>
       </c>
       <c r="M24" t="n">
-        <v>342.9315771988917</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N24" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O24" t="n">
-        <v>208.024517156203</v>
+        <v>319.698762898947</v>
       </c>
       <c r="P24" t="n">
         <v>465.8924336824983</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>52.71833241778046</v>
+        <v>221.8149475898542</v>
       </c>
       <c r="K26" t="n">
         <v>454.4075555788177</v>
       </c>
       <c r="L26" t="n">
-        <v>616.5374284452646</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M26" t="n">
-        <v>702.7909715464339</v>
+        <v>689.9733300152061</v>
       </c>
       <c r="N26" t="n">
-        <v>699.3830687105735</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O26" t="n">
-        <v>614.7635209976531</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P26" t="n">
-        <v>417.8785497736958</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q26" t="n">
-        <v>75.12322945970007</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>138.4817867525216</v>
       </c>
       <c r="K27" t="n">
-        <v>364.587272144641</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L27" t="n">
-        <v>552.2572229763484</v>
+        <v>552.2572229763483</v>
       </c>
       <c r="M27" t="n">
-        <v>342.9315771988919</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N27" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O27" t="n">
-        <v>208.024517156203</v>
+        <v>319.698762898947</v>
       </c>
       <c r="P27" t="n">
-        <v>465.8924336824984</v>
+        <v>465.8924336824983</v>
       </c>
       <c r="Q27" t="n">
         <v>258.206683772143</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>73.96788811211115</v>
+        <v>73.96788811211117</v>
       </c>
       <c r="K28" t="n">
         <v>201.2487931569082</v>
@@ -36771,7 +36771,7 @@
         <v>226.682152578506</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.27100235571163</v>
+        <v>97.27100235571164</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>221.8149475898542</v>
+        <v>52.7183324177804</v>
       </c>
       <c r="K29" t="n">
-        <v>130.2621430076529</v>
+        <v>454.4075555788177</v>
       </c>
       <c r="L29" t="n">
         <v>616.5374284452645</v>
@@ -36847,13 +36847,13 @@
         <v>614.763520997653</v>
       </c>
       <c r="P29" t="n">
-        <v>360.6123565128834</v>
+        <v>394.7354849261414</v>
       </c>
       <c r="Q29" t="n">
-        <v>287.4382201196047</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>23.14306484755537</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>73.96788811211117</v>
+        <v>73.9678881121111</v>
       </c>
       <c r="K31" t="n">
-        <v>201.2487931569082</v>
+        <v>201.2487931569081</v>
       </c>
       <c r="L31" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M31" t="n">
         <v>313.2283662966472</v>
       </c>
       <c r="N31" t="n">
-        <v>313.1717448903011</v>
+        <v>313.1717448903009</v>
       </c>
       <c r="O31" t="n">
-        <v>279.1922172092617</v>
+        <v>279.1922172092616</v>
       </c>
       <c r="P31" t="n">
-        <v>226.682152578506</v>
+        <v>226.6821525785059</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.27100235571164</v>
+        <v>97.27100235571157</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,16 +37072,16 @@
         <v>454.4075555788177</v>
       </c>
       <c r="L32" t="n">
-        <v>198.876213894814</v>
+        <v>616.5374284452645</v>
       </c>
       <c r="M32" t="n">
-        <v>702.7909715464338</v>
+        <v>253.2774380536013</v>
       </c>
       <c r="N32" t="n">
-        <v>699.3830687105734</v>
+        <v>698.7320362601939</v>
       </c>
       <c r="O32" t="n">
-        <v>559.1171047573356</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P32" t="n">
         <v>486.6315098849297</v>
@@ -37090,7 +37090,7 @@
         <v>287.4382201196047</v>
       </c>
       <c r="R32" t="n">
-        <v>23.14306484755537</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>73.96788811211121</v>
+        <v>73.96788811211115</v>
       </c>
       <c r="K34" t="n">
         <v>201.2487931569082</v>
       </c>
       <c r="L34" t="n">
-        <v>291.249707140733</v>
+        <v>291.2497071407329</v>
       </c>
       <c r="M34" t="n">
-        <v>313.2283662966473</v>
+        <v>313.2283662966472</v>
       </c>
       <c r="N34" t="n">
-        <v>313.1717448903011</v>
+        <v>313.171744890301</v>
       </c>
       <c r="O34" t="n">
         <v>279.1922172092617</v>
@@ -37245,7 +37245,7 @@
         <v>226.682152578506</v>
       </c>
       <c r="Q34" t="n">
-        <v>97.27100235571169</v>
+        <v>97.27100235571163</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>221.8149475898542</v>
+        <v>52.7183324177804</v>
       </c>
       <c r="K35" t="n">
-        <v>454.4075555788177</v>
+        <v>130.2621430076529</v>
       </c>
       <c r="L35" t="n">
         <v>616.5374284452645</v>
       </c>
       <c r="M35" t="n">
-        <v>294.7352950640366</v>
+        <v>702.7909715464338</v>
       </c>
       <c r="N35" t="n">
-        <v>262.0361442985892</v>
+        <v>699.3830687105734</v>
       </c>
       <c r="O35" t="n">
         <v>614.763520997653</v>
       </c>
       <c r="P35" t="n">
-        <v>486.6315098849297</v>
+        <v>369.9289922412473</v>
       </c>
       <c r="Q35" t="n">
-        <v>287.4382201196047</v>
+        <v>75.12322945970001</v>
       </c>
       <c r="R35" t="n">
-        <v>23.14306484755537</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,13 +37391,13 @@
         <v>552.2572229763483</v>
       </c>
       <c r="M36" t="n">
-        <v>342.9315771988926</v>
+        <v>231.2573314561482</v>
       </c>
       <c r="N36" t="n">
         <v>251.9322116757095</v>
       </c>
       <c r="O36" t="n">
-        <v>208.024517156203</v>
+        <v>319.6987628989475</v>
       </c>
       <c r="P36" t="n">
         <v>465.8924336824983</v>
@@ -37470,19 +37470,19 @@
         <v>211.2700490050758</v>
       </c>
       <c r="M37" t="n">
-        <v>233.2487081609901</v>
+        <v>261.5882148143913</v>
       </c>
       <c r="N37" t="n">
-        <v>233.1920867546439</v>
+        <v>337.4844302368712</v>
       </c>
       <c r="O37" t="n">
-        <v>227.5520657270061</v>
+        <v>199.2125590736046</v>
       </c>
       <c r="P37" t="n">
         <v>250.9948379250761</v>
       </c>
       <c r="Q37" t="n">
-        <v>121.5836877022818</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>253.2774380536013</v>
       </c>
       <c r="N38" t="n">
-        <v>303.4940013090257</v>
+        <v>326.6370661565797</v>
       </c>
       <c r="O38" t="n">
         <v>614.763520997653</v>
@@ -37564,7 +37564,7 @@
         <v>287.4382201196047</v>
       </c>
       <c r="R38" t="n">
-        <v>23.14306484755537</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>12.39075141211273</v>
       </c>
       <c r="K39" t="n">
-        <v>208.4902339510644</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L39" t="n">
         <v>552.2572229763483</v>
       </c>
       <c r="M39" t="n">
-        <v>231.2573314561482</v>
+        <v>285.2375809984211</v>
       </c>
       <c r="N39" t="n">
         <v>251.9322116757095</v>
@@ -37640,7 +37640,7 @@
         <v>465.8924336824983</v>
       </c>
       <c r="Q39" t="n">
-        <v>258.206683772143</v>
+        <v>48.12939603629388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>28.33950665340149</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>225.5614785034783</v>
+        <v>121.2691350212511</v>
       </c>
       <c r="L40" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M40" t="n">
-        <v>233.2487081609901</v>
+        <v>337.5410516432174</v>
       </c>
       <c r="N40" t="n">
         <v>233.1920867546439</v>
       </c>
       <c r="O40" t="n">
-        <v>199.2125590736046</v>
+        <v>303.5049025558319</v>
       </c>
       <c r="P40" t="n">
-        <v>146.7024944428488</v>
+        <v>175.0420010962501</v>
       </c>
       <c r="Q40" t="n">
-        <v>121.5836877022818</v>
+        <v>17.29134422005451</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>52.7183324177804</v>
+        <v>221.8149475898542</v>
       </c>
       <c r="K41" t="n">
         <v>454.4075555788177</v>
       </c>
       <c r="L41" t="n">
-        <v>616.5374284452645</v>
+        <v>208.4817519628677</v>
       </c>
       <c r="M41" t="n">
         <v>702.7909715464338</v>
       </c>
       <c r="N41" t="n">
-        <v>699.3830687105734</v>
+        <v>262.0361442985892</v>
       </c>
       <c r="O41" t="n">
-        <v>233.9633397349077</v>
+        <v>614.763520997653</v>
       </c>
       <c r="P41" t="n">
-        <v>403.4406960852721</v>
+        <v>486.6315098849297</v>
       </c>
       <c r="Q41" t="n">
-        <v>75.12322945970001</v>
+        <v>287.4382201196047</v>
       </c>
       <c r="R41" t="n">
         <v>23.14306484755537</v>
@@ -37938,25 +37938,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>149.6086416746522</v>
+        <v>121.2691350212511</v>
       </c>
       <c r="L43" t="n">
         <v>211.2700490050758</v>
       </c>
       <c r="M43" t="n">
-        <v>337.5410516432174</v>
+        <v>233.2487081609901</v>
       </c>
       <c r="N43" t="n">
         <v>233.1920867546439</v>
       </c>
       <c r="O43" t="n">
-        <v>303.5049025558319</v>
+        <v>303.5049025558318</v>
       </c>
       <c r="P43" t="n">
-        <v>146.7024944428488</v>
+        <v>250.9948379250761</v>
       </c>
       <c r="Q43" t="n">
-        <v>17.29134422005451</v>
+        <v>45.63085087345624</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,13 +38020,13 @@
         <v>454.4075555788177</v>
       </c>
       <c r="L44" t="n">
-        <v>616.5374284452645</v>
+        <v>220.648361043716</v>
       </c>
       <c r="M44" t="n">
         <v>253.2774380536013</v>
       </c>
       <c r="N44" t="n">
-        <v>303.4940013090244</v>
+        <v>699.3830687105734</v>
       </c>
       <c r="O44" t="n">
         <v>614.763520997653</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>12.39075141211273</v>
+        <v>138.4817867525216</v>
       </c>
       <c r="K45" t="n">
-        <v>208.4902339510644</v>
+        <v>364.5872721446409</v>
       </c>
       <c r="L45" t="n">
         <v>552.2572229763483</v>
@@ -38108,7 +38108,7 @@
         <v>251.9322116757095</v>
       </c>
       <c r="O45" t="n">
-        <v>601.8868364329326</v>
+        <v>319.6987628989475</v>
       </c>
       <c r="P45" t="n">
         <v>465.8924336824983</v>
@@ -38175,25 +38175,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>225.5614785034783</v>
+        <v>121.2691350212511</v>
       </c>
       <c r="L46" t="n">
-        <v>315.5623924873031</v>
+        <v>211.2700490050758</v>
       </c>
       <c r="M46" t="n">
-        <v>261.5882148143914</v>
+        <v>233.2487081609901</v>
       </c>
       <c r="N46" t="n">
         <v>233.1920867546439</v>
       </c>
       <c r="O46" t="n">
-        <v>199.2125590736046</v>
+        <v>227.5520657270061</v>
       </c>
       <c r="P46" t="n">
-        <v>146.7024944428488</v>
+        <v>250.9948379250761</v>
       </c>
       <c r="Q46" t="n">
-        <v>17.29134422005451</v>
+        <v>121.5836877022818</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
